--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y273"/>
+  <dimension ref="A1:Y277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21117,6 +21117,330 @@
         </is>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>365.5725925925926</v>
+      </c>
+      <c r="C274" t="n">
+        <v>347.9066666666667</v>
+      </c>
+      <c r="D274" t="n">
+        <v>350.19</v>
+      </c>
+      <c r="E274" t="n">
+        <v>360.0388888888889</v>
+      </c>
+      <c r="F274" t="n">
+        <v>369.82</v>
+      </c>
+      <c r="G274" t="n">
+        <v>372.8584210526316</v>
+      </c>
+      <c r="H274" t="n">
+        <v>361.7284210526316</v>
+      </c>
+      <c r="I274" t="n">
+        <v>358.155</v>
+      </c>
+      <c r="J274" t="n">
+        <v>363.0884210526316</v>
+      </c>
+      <c r="K274" t="n">
+        <v>407.3733333333333</v>
+      </c>
+      <c r="L274" t="n">
+        <v>362.0461904761905</v>
+      </c>
+      <c r="M274" t="n">
+        <v>369.5942857142857</v>
+      </c>
+      <c r="N274" t="n">
+        <v>369.4042857142857</v>
+      </c>
+      <c r="O274" t="n">
+        <v>367.5466666666667</v>
+      </c>
+      <c r="P274" t="n">
+        <v>372.2742857142857</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>379.5633333333333</v>
+      </c>
+      <c r="R274" t="n">
+        <v>363.9666666666667</v>
+      </c>
+      <c r="S274" t="n">
+        <v>366.9142857142857</v>
+      </c>
+      <c r="T274" t="n">
+        <v>368.5942857142857</v>
+      </c>
+      <c r="U274" t="n">
+        <v>391.16</v>
+      </c>
+      <c r="V274" t="n">
+        <v>394.5533333333333</v>
+      </c>
+      <c r="W274" t="n">
+        <v>387.8642857142857</v>
+      </c>
+      <c r="X274" t="n">
+        <v>396.84</v>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>358.2718518518519</v>
+      </c>
+      <c r="C275" t="n">
+        <v>351.2833333333333</v>
+      </c>
+      <c r="D275" t="n">
+        <v>355.47</v>
+      </c>
+      <c r="E275" t="n">
+        <v>371.9677777777778</v>
+      </c>
+      <c r="F275" t="n">
+        <v>384.99</v>
+      </c>
+      <c r="G275" t="n">
+        <v>383.4952631578947</v>
+      </c>
+      <c r="H275" t="n">
+        <v>373.7852631578948</v>
+      </c>
+      <c r="I275" t="n">
+        <v>370.07</v>
+      </c>
+      <c r="J275" t="n">
+        <v>369.2052631578948</v>
+      </c>
+      <c r="K275" t="n">
+        <v>417.2866666666667</v>
+      </c>
+      <c r="L275" t="n">
+        <v>371.8466666666667</v>
+      </c>
+      <c r="M275" t="n">
+        <v>380.17</v>
+      </c>
+      <c r="N275" t="n">
+        <v>377.83</v>
+      </c>
+      <c r="O275" t="n">
+        <v>378.2433333333333</v>
+      </c>
+      <c r="P275" t="n">
+        <v>386.36</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>390.5966666666667</v>
+      </c>
+      <c r="R275" t="n">
+        <v>383.1533333333334</v>
+      </c>
+      <c r="S275" t="n">
+        <v>381.16</v>
+      </c>
+      <c r="T275" t="n">
+        <v>380.82</v>
+      </c>
+      <c r="U275" t="n">
+        <v>391.35</v>
+      </c>
+      <c r="V275" t="n">
+        <v>399.9566666666667</v>
+      </c>
+      <c r="W275" t="n">
+        <v>390.18</v>
+      </c>
+      <c r="X275" t="n">
+        <v>389.83</v>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>359.9377777777778</v>
+      </c>
+      <c r="C276" t="n">
+        <v>346.92</v>
+      </c>
+      <c r="D276" t="n">
+        <v>359.92</v>
+      </c>
+      <c r="E276" t="n">
+        <v>366.2566666666667</v>
+      </c>
+      <c r="F276" t="n">
+        <v>376.81</v>
+      </c>
+      <c r="G276" t="n">
+        <v>379.5484210526316</v>
+      </c>
+      <c r="H276" t="n">
+        <v>368.7184210526316</v>
+      </c>
+      <c r="I276" t="n">
+        <v>369.955</v>
+      </c>
+      <c r="J276" t="n">
+        <v>369.3084210526316</v>
+      </c>
+      <c r="K276" t="n">
+        <v>411.92</v>
+      </c>
+      <c r="L276" t="n">
+        <v>371.7371428571428</v>
+      </c>
+      <c r="M276" t="n">
+        <v>380.0557142857143</v>
+      </c>
+      <c r="N276" t="n">
+        <v>379.2857142857143</v>
+      </c>
+      <c r="O276" t="n">
+        <v>378.54</v>
+      </c>
+      <c r="P276" t="n">
+        <v>390.6457142857143</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>395.4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>382.88</v>
+      </c>
+      <c r="S276" t="n">
+        <v>377.6657142857143</v>
+      </c>
+      <c r="T276" t="n">
+        <v>382.6457142857143</v>
+      </c>
+      <c r="U276" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="V276" t="n">
+        <v>394.99</v>
+      </c>
+      <c r="W276" t="n">
+        <v>389.1157142857143</v>
+      </c>
+      <c r="X276" t="n">
+        <v>407.09</v>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>359.9951851851852</v>
+      </c>
+      <c r="C277" t="n">
+        <v>355.8033333333333</v>
+      </c>
+      <c r="D277" t="n">
+        <v>353.08</v>
+      </c>
+      <c r="E277" t="n">
+        <v>365.6677777777778</v>
+      </c>
+      <c r="F277" t="n">
+        <v>384.05</v>
+      </c>
+      <c r="G277" t="n">
+        <v>382.6863157894737</v>
+      </c>
+      <c r="H277" t="n">
+        <v>370.8863157894737</v>
+      </c>
+      <c r="I277" t="n">
+        <v>371.835</v>
+      </c>
+      <c r="J277" t="n">
+        <v>373.0763157894737</v>
+      </c>
+      <c r="K277" t="n">
+        <v>405.1566666666667</v>
+      </c>
+      <c r="L277" t="n">
+        <v>375.4252380952381</v>
+      </c>
+      <c r="M277" t="n">
+        <v>385.3428571428572</v>
+      </c>
+      <c r="N277" t="n">
+        <v>386.1828571428572</v>
+      </c>
+      <c r="O277" t="n">
+        <v>385.6333333333333</v>
+      </c>
+      <c r="P277" t="n">
+        <v>388.1228571428572</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>392.1566666666667</v>
+      </c>
+      <c r="R277" t="n">
+        <v>378.0533333333333</v>
+      </c>
+      <c r="S277" t="n">
+        <v>371.7328571428571</v>
+      </c>
+      <c r="T277" t="n">
+        <v>385.6228571428572</v>
+      </c>
+      <c r="U277" t="n">
+        <v>403.33</v>
+      </c>
+      <c r="V277" t="n">
+        <v>400.5766666666667</v>
+      </c>
+      <c r="W277" t="n">
+        <v>391.2628571428572</v>
+      </c>
+      <c r="X277" t="n">
+        <v>403.55</v>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21128,7 +21452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23926,6 +24250,46 @@
       </c>
       <c r="B279" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -24094,28 +24458,28 @@
         <v>0.1875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2092272183068075</v>
+        <v>0.2178099370473695</v>
       </c>
       <c r="J2" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K2" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02000060866154707</v>
+        <v>0.02235523631593406</v>
       </c>
       <c r="M2" t="n">
-        <v>7.691980884491447</v>
+        <v>7.600468574823338</v>
       </c>
       <c r="N2" t="n">
-        <v>101.4467312680518</v>
+        <v>99.94158260065262</v>
       </c>
       <c r="O2" t="n">
-        <v>10.07207681007506</v>
+        <v>9.997078703333921</v>
       </c>
       <c r="P2" t="n">
-        <v>353.1609790317044</v>
+        <v>353.0692942857783</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24171,28 +24535,28 @@
         <v>0.1671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2571708790081679</v>
+        <v>0.2610274691418128</v>
       </c>
       <c r="J3" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K3" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02829958349489381</v>
+        <v>0.030091079290675</v>
       </c>
       <c r="M3" t="n">
-        <v>8.486032039280902</v>
+        <v>8.393012616261267</v>
       </c>
       <c r="N3" t="n">
-        <v>106.1297105720968</v>
+        <v>104.560375611155</v>
       </c>
       <c r="O3" t="n">
-        <v>10.30192751731912</v>
+        <v>10.22547679138508</v>
       </c>
       <c r="P3" t="n">
-        <v>342.8450108652382</v>
+        <v>342.8033714662371</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24248,28 +24612,28 @@
         <v>0.1265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.200084353392165</v>
+        <v>0.2179052035056223</v>
       </c>
       <c r="J4" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01414272588417853</v>
+        <v>0.01722968217604992</v>
       </c>
       <c r="M4" t="n">
-        <v>9.2856296739279</v>
+        <v>9.216815719510713</v>
       </c>
       <c r="N4" t="n">
-        <v>130.2867558319644</v>
+        <v>128.7351537594478</v>
       </c>
       <c r="O4" t="n">
-        <v>11.41432239915994</v>
+        <v>11.34615149552692</v>
       </c>
       <c r="P4" t="n">
-        <v>344.4176509220998</v>
+        <v>344.2252169984703</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24325,28 +24689,28 @@
         <v>0.1118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1204837568413064</v>
+        <v>0.1545300135928747</v>
       </c>
       <c r="J5" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K5" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005079548726480532</v>
+        <v>0.008497139312993895</v>
       </c>
       <c r="M5" t="n">
-        <v>9.233934933808184</v>
+        <v>9.236363327374049</v>
       </c>
       <c r="N5" t="n">
-        <v>133.8294859221495</v>
+        <v>133.4644183290645</v>
       </c>
       <c r="O5" t="n">
-        <v>11.56846947189426</v>
+        <v>11.55268013618764</v>
       </c>
       <c r="P5" t="n">
-        <v>352.9562937287759</v>
+        <v>352.5894614077003</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24402,28 +24766,28 @@
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1519254343228336</v>
+        <v>0.1946902160894227</v>
       </c>
       <c r="J6" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K6" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007718795368701903</v>
+        <v>0.01275642632736829</v>
       </c>
       <c r="M6" t="n">
-        <v>9.420209514511397</v>
+        <v>9.473686207294309</v>
       </c>
       <c r="N6" t="n">
-        <v>141.7234928502685</v>
+        <v>142.5311885266166</v>
       </c>
       <c r="O6" t="n">
-        <v>11.90476765209084</v>
+        <v>11.93864265846904</v>
       </c>
       <c r="P6" t="n">
-        <v>362.3971228281281</v>
+        <v>361.9395839737433</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24479,28 +24843,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1207456621346016</v>
+        <v>0.1595961877289884</v>
       </c>
       <c r="J7" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00502835309202454</v>
+        <v>0.008899864083783515</v>
       </c>
       <c r="M7" t="n">
-        <v>9.508530894613905</v>
+        <v>9.529722524466482</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3827940824287</v>
+        <v>137.5072415990626</v>
       </c>
       <c r="O7" t="n">
-        <v>11.72104065697362</v>
+        <v>11.72634817831462</v>
       </c>
       <c r="P7" t="n">
-        <v>364.9953690550206</v>
+        <v>364.5823460523288</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24556,28 +24920,28 @@
         <v>0.1174</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1467837525661849</v>
+        <v>0.1830099217158783</v>
       </c>
       <c r="J8" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K8" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008465768692327735</v>
+        <v>0.01331132276743485</v>
       </c>
       <c r="M8" t="n">
-        <v>8.796085025424413</v>
+        <v>8.821859696606346</v>
       </c>
       <c r="N8" t="n">
-        <v>120.6946208850737</v>
+        <v>120.8759757021886</v>
       </c>
       <c r="O8" t="n">
-        <v>10.98611036195585</v>
+        <v>10.99436108658382</v>
       </c>
       <c r="P8" t="n">
-        <v>354.1906457439307</v>
+        <v>353.8069047353815</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24633,28 +24997,28 @@
         <v>0.0988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1452148257322735</v>
+        <v>0.1918843350634142</v>
       </c>
       <c r="J9" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K9" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007333050939460684</v>
+        <v>0.01282196266539914</v>
       </c>
       <c r="M9" t="n">
-        <v>9.147737452190992</v>
+        <v>9.189713332185681</v>
       </c>
       <c r="N9" t="n">
-        <v>135.0941362931587</v>
+        <v>136.4669313988267</v>
       </c>
       <c r="O9" t="n">
-        <v>11.62300031373822</v>
+        <v>11.68190615434085</v>
       </c>
       <c r="P9" t="n">
-        <v>349.6712355899426</v>
+        <v>349.1708246818534</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24710,28 +25074,28 @@
         <v>0.1124</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06684924286279156</v>
+        <v>0.1034113016639877</v>
       </c>
       <c r="J10" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K10" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001748056910111817</v>
+        <v>0.00424899138816115</v>
       </c>
       <c r="M10" t="n">
-        <v>8.640101799770362</v>
+        <v>8.648634560172663</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6313660403515</v>
+        <v>120.6127373109871</v>
       </c>
       <c r="O10" t="n">
-        <v>10.98323112933309</v>
+        <v>10.98238304335571</v>
       </c>
       <c r="P10" t="n">
-        <v>356.3659720004592</v>
+        <v>355.9742330070047</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -24787,28 +25151,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3654578394429417</v>
+        <v>0.3627090610862141</v>
       </c>
       <c r="J11" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K11" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02205906019588988</v>
+        <v>0.02246600782588137</v>
       </c>
       <c r="M11" t="n">
-        <v>13.08708527591395</v>
+        <v>12.93089325885327</v>
       </c>
       <c r="N11" t="n">
-        <v>286.9598405424346</v>
+        <v>282.2951536952226</v>
       </c>
       <c r="O11" t="n">
-        <v>16.93988903571787</v>
+        <v>16.80164139884025</v>
       </c>
       <c r="P11" t="n">
-        <v>401.9205697095049</v>
+        <v>401.9499307841037</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -24864,28 +25228,28 @@
         <v>0.1412</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1374286851613638</v>
+        <v>0.1476975937340021</v>
       </c>
       <c r="J12" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K12" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007824985351605696</v>
+        <v>0.009283159554495657</v>
       </c>
       <c r="M12" t="n">
-        <v>8.413855787984987</v>
+        <v>8.371227572677375</v>
       </c>
       <c r="N12" t="n">
-        <v>113.1034827464783</v>
+        <v>111.825772402939</v>
       </c>
       <c r="O12" t="n">
-        <v>10.63501211783411</v>
+        <v>10.5747705602977</v>
       </c>
       <c r="P12" t="n">
-        <v>363.656244372229</v>
+        <v>363.5456586467977</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -24941,28 +25305,28 @@
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1795186411941204</v>
+        <v>0.20981038470204</v>
       </c>
       <c r="J13" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K13" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01130480290548774</v>
+        <v>0.01566500881565869</v>
       </c>
       <c r="M13" t="n">
-        <v>9.484509369766675</v>
+        <v>9.480078813752922</v>
       </c>
       <c r="N13" t="n">
-        <v>136.4327685964058</v>
+        <v>136.1124222054788</v>
       </c>
       <c r="O13" t="n">
-        <v>11.68044385271407</v>
+        <v>11.66672285628997</v>
       </c>
       <c r="P13" t="n">
-        <v>364.8389042250486</v>
+        <v>364.5175956196454</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -25018,28 +25382,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2026644284334097</v>
+        <v>0.2373317554623471</v>
       </c>
       <c r="J14" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01354944121501434</v>
+        <v>0.01879003909585986</v>
       </c>
       <c r="M14" t="n">
-        <v>9.381551513124963</v>
+        <v>9.375004728146161</v>
       </c>
       <c r="N14" t="n">
-        <v>142.6748362107779</v>
+        <v>142.7007478724032</v>
       </c>
       <c r="O14" t="n">
-        <v>11.94465722449907</v>
+        <v>11.94574183014195</v>
       </c>
       <c r="P14" t="n">
-        <v>362.3329464411768</v>
+        <v>361.9625924295535</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -25095,28 +25459,28 @@
         <v>0.0848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1289636417629935</v>
+        <v>0.1579435292969265</v>
       </c>
       <c r="J15" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K15" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005575959119913265</v>
+        <v>0.008498435142425431</v>
       </c>
       <c r="M15" t="n">
-        <v>9.220501521495509</v>
+        <v>9.221036692234181</v>
       </c>
       <c r="N15" t="n">
-        <v>141.8544212333117</v>
+        <v>141.5031576046023</v>
       </c>
       <c r="O15" t="n">
-        <v>11.91026537207764</v>
+        <v>11.89550997665095</v>
       </c>
       <c r="P15" t="n">
-        <v>365.1636375371996</v>
+        <v>364.8544316174567</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -25172,28 +25536,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2327036538609722</v>
+        <v>0.2610921206223</v>
       </c>
       <c r="J16" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K16" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01908404688758225</v>
+        <v>0.02430393620152926</v>
       </c>
       <c r="M16" t="n">
-        <v>9.473310148576084</v>
+        <v>9.490250845417473</v>
       </c>
       <c r="N16" t="n">
-        <v>133.9404394890042</v>
+        <v>133.8322213050248</v>
       </c>
       <c r="O16" t="n">
-        <v>11.57326399461294</v>
+        <v>11.56858769707974</v>
       </c>
       <c r="P16" t="n">
-        <v>369.4886983570158</v>
+        <v>369.1863288112344</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -25249,28 +25613,28 @@
         <v>0.068</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3695853746482877</v>
+        <v>0.3980210702437736</v>
       </c>
       <c r="J17" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K17" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05159219346017496</v>
+        <v>0.06037246181656253</v>
       </c>
       <c r="M17" t="n">
-        <v>8.879237835959978</v>
+        <v>8.891418056741658</v>
       </c>
       <c r="N17" t="n">
-        <v>122.2541203776357</v>
+        <v>122.0549155607293</v>
       </c>
       <c r="O17" t="n">
-        <v>11.05685852209549</v>
+        <v>11.04784664813597</v>
       </c>
       <c r="P17" t="n">
-        <v>371.1842487281585</v>
+        <v>370.8844517569165</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -25326,28 +25690,28 @@
         <v>0.0901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3306953721835263</v>
+        <v>0.3501521342121762</v>
       </c>
       <c r="J18" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K18" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03933261157736589</v>
+        <v>0.04477666648669032</v>
       </c>
       <c r="M18" t="n">
-        <v>9.116060779642158</v>
+        <v>9.120272273922096</v>
       </c>
       <c r="N18" t="n">
-        <v>129.1002106210145</v>
+        <v>128.565406947106</v>
       </c>
       <c r="O18" t="n">
-        <v>11.36222736179023</v>
+        <v>11.33866865849364</v>
       </c>
       <c r="P18" t="n">
-        <v>362.5607935307923</v>
+        <v>362.3551418721394</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -25403,28 +25767,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3029362452158753</v>
+        <v>0.3265911514964226</v>
       </c>
       <c r="J19" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K19" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03625057763338035</v>
+        <v>0.0427532230731632</v>
       </c>
       <c r="M19" t="n">
-        <v>8.639356744601805</v>
+        <v>8.617636714468635</v>
       </c>
       <c r="N19" t="n">
-        <v>119.0389275202955</v>
+        <v>118.4508329982573</v>
       </c>
       <c r="O19" t="n">
-        <v>10.91049620871093</v>
+        <v>10.88351197905608</v>
       </c>
       <c r="P19" t="n">
-        <v>359.2471533116501</v>
+        <v>358.9981555921524</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -25480,28 +25844,28 @@
         <v>0.0765</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3015711779333939</v>
+        <v>0.3244944327245642</v>
       </c>
       <c r="J20" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K20" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03628076742466657</v>
+        <v>0.04261535286220819</v>
       </c>
       <c r="M20" t="n">
-        <v>8.823446594115811</v>
+        <v>8.814773127468712</v>
       </c>
       <c r="N20" t="n">
-        <v>115.7283862681026</v>
+        <v>115.2698020508982</v>
       </c>
       <c r="O20" t="n">
-        <v>10.75771287347374</v>
+        <v>10.73637751063636</v>
       </c>
       <c r="P20" t="n">
-        <v>364.8156628174256</v>
+        <v>364.5713927777999</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -25557,28 +25921,28 @@
         <v>0.0572</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1750878027904801</v>
+        <v>0.2226347106207151</v>
       </c>
       <c r="J21" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K21" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01112208749148125</v>
+        <v>0.0179486476084979</v>
       </c>
       <c r="M21" t="n">
-        <v>9.025927395630349</v>
+        <v>9.120509813894424</v>
       </c>
       <c r="N21" t="n">
-        <v>130.9928624158272</v>
+        <v>132.563815477098</v>
       </c>
       <c r="O21" t="n">
-        <v>11.44521133119993</v>
+        <v>11.51363606672966</v>
       </c>
       <c r="P21" t="n">
-        <v>377.7236231529927</v>
+        <v>377.217920910508</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -25634,28 +25998,28 @@
         <v>0.065</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08612895379144482</v>
+        <v>0.1239097478799962</v>
       </c>
       <c r="J22" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K22" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003237170154058666</v>
+        <v>0.006771816108931961</v>
       </c>
       <c r="M22" t="n">
-        <v>8.459805970659893</v>
+        <v>8.49405506120336</v>
       </c>
       <c r="N22" t="n">
-        <v>110.6456631754357</v>
+        <v>110.9950603997133</v>
       </c>
       <c r="O22" t="n">
-        <v>10.51882422970532</v>
+        <v>10.53541932718927</v>
       </c>
       <c r="P22" t="n">
-        <v>383.8928164610743</v>
+        <v>383.4945991896157</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -25711,28 +26075,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06180448622041158</v>
+        <v>0.09860825760773273</v>
       </c>
       <c r="J23" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K23" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001890642912512397</v>
+        <v>0.004865154513646885</v>
       </c>
       <c r="M23" t="n">
-        <v>8.007220537811955</v>
+        <v>8.040039019555536</v>
       </c>
       <c r="N23" t="n">
-        <v>97.1481426179101</v>
+        <v>97.48839026630064</v>
       </c>
       <c r="O23" t="n">
-        <v>9.856375734412223</v>
+        <v>9.873620929846387</v>
       </c>
       <c r="P23" t="n">
-        <v>376.9802217830529</v>
+        <v>376.5902831160174</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -25788,28 +26152,28 @@
         <v>0.0539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009186537664976476</v>
+        <v>0.05846453450593104</v>
       </c>
       <c r="J24" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K24" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L24" t="n">
-        <v>2.621886582554467e-05</v>
+        <v>0.001068358595808006</v>
       </c>
       <c r="M24" t="n">
-        <v>9.8144683333577</v>
+        <v>9.892856224046234</v>
       </c>
       <c r="N24" t="n">
-        <v>152.880716896193</v>
+        <v>154.5026343203385</v>
       </c>
       <c r="O24" t="n">
-        <v>12.36449420300697</v>
+        <v>12.42990886210911</v>
       </c>
       <c r="P24" t="n">
-        <v>384.2536342174544</v>
+        <v>383.7288362253749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -25846,7 +26210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y273"/>
+  <dimension ref="A1:Y277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57569,6 +57933,514 @@
         </is>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>-36.260321979496545,175.4898902196035</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>-36.26105787018592,175.49002802381918</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>-36.261726961936034,175.4903718755608</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>-36.262370716706684,175.49079387071677</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>-36.26300928054397,175.49121176631343</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>-36.26359689970221,175.49166920905552</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>-36.26419012923662,175.4921785432316</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>-36.264745070052136,175.49275832787202</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>-36.265247186438735,175.49340669470445</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>-36.26550495470456,175.49437231355412</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>-36.266318812121526,175.4946147160318</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>-36.26670738485331,175.49535972975724</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>-36.267093168044774,175.49611409542095</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>-36.267493864979265,175.49686314626587</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>-36.267841860818855,175.49764567722892</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>-36.26810466985346,175.4984446262527</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>-36.268415915789284,175.49925186853972</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>-36.26856957637014,175.5001297603813</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>-36.268734346409005,175.5010043816884</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>-36.26871388123621,175.5019190159363</t>
+        </is>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>-36.26879820747274,175.5027446595246</t>
+        </is>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>-36.26881390702959,175.50360428447135</t>
+        </is>
+      </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>-36.26868716567586,175.5044927212628</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>-36.26034642346314,175.4898148134869</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>-36.261046564572005,175.4900629002128</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>-36.26170928354145,175.4904264112024</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>-36.2623307762575,175.49091708164647</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>-36.262948700392585,175.4913630584037</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>-36.26353885123098,175.49176337336974</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>-36.26411526605561,175.49227574515635</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>-36.264671087306354,175.49285438655156</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>-36.26520920551148,175.4934560087598</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>-36.26544339997299,175.4944522345696</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>-36.266253119885256,175.4946875807106</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>-36.26662870707104,175.49542610735887</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>-36.267028315702255,175.49616282686773</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>-36.267411532990984,175.49692501187513</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>-36.267730787585776,175.49772149224356</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>-36.26801121513454,175.4984864761805</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>-36.26824775648767,175.49930136817</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>-36.2684447213495,175.50016651201028</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>-36.268627195356856,175.5010359213136</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>-36.268712200813916,175.50191941938385</t>
+        </is>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>-36.268749551855024,175.50274669862918</t>
+        </is>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>-36.26879311049141,175.50360220803134</t>
+        </is>
+      </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>-36.26875011972875,175.50449900739778</t>
+        </is>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>-36.260340845699226,175.48983202010209</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>-36.26106117370008,175.4900178328868</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>-36.26169438411828,175.4904723739863</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>-36.26234989828365,175.49085809282366</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>-36.26298136657473,175.4912814783878</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>-36.263560390352666,175.49172843334702</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>-36.26414672703197,175.49223489643933</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>-36.264671801365935,175.49285345942292</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>-36.26520856497942,175.49345684041958</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>-36.26547672315253,175.494408968669</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>-36.266253854019595,175.49468676642257</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>-36.26662955729715,175.4954253900547</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>-36.267017111133356,175.49617124621278</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>-36.267409249554305,175.49692672768484</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>-36.26769699247618,175.49774455965087</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>-36.267970529858864,175.49850469540968</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>-36.26825015208591,175.49930066299942</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>-36.26847534663921,175.50015749733052</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>-36.268611194065706,175.50104063124388</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>-36.26863127521303,175.50193884855125</t>
+        </is>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>-36.26879427540247,175.50274482431345</t>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>-36.26880266843156,175.50360316234813</t>
+        </is>
+      </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>-36.268595114454925,175.50448352971952</t>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>-36.26034065349078,175.48983261303786</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>-36.26103143088194,175.49010958567476</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>-36.26171728569651,175.4904017255648</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>-36.2623518700085,175.49085201031687</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>-36.26295245421085,175.4913536836866</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>-36.26354326590438,175.49175621204117</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>-36.264133266167065,175.49225237394054</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>-36.2646601280434,175.49286861595863</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>-36.26518516921545,175.49348721720838</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>-36.265518718617294,175.49435444283236</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>-36.266229132840756,175.49471418667912</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>-36.26659022370787,175.49545857432398</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>-36.266964024120725,175.49621113685606</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>-36.26735465232082,175.49696775285923</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>-36.26771688653117,175.49773098063943</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>-36.26799800159626,175.49849239332278</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>-36.26829245484431,175.49928821071234</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>-36.26852734452352,175.5001421915248</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>-36.26858510119313,175.501048311596</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>-36.26860624576435,175.50194485778388</t>
+        </is>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>-36.26874396891552,175.5027469326041</t>
+        </is>
+      </c>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>-36.26878338576839,175.50360123706236</t>
+        </is>
+      </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>-36.26862690580373,175.50448670416156</t>
+        </is>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -24303,7 +24303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24394,35 +24394,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24481,27 +24486,28 @@
       <c r="P2" t="n">
         <v>353.0692942857783</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.4861143215508 -36.261545914597754, 175.49564467670925 -36.258456407731344)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.4861143215508</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.26154591459775</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.4956446767092</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.25845640773134</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.49087949913</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.26000116116455</v>
       </c>
     </row>
@@ -24558,27 +24564,28 @@
       <c r="P3" t="n">
         <v>342.8033714662371</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.4864345624764 -36.262222664136054, 175.49596496051396 -36.259133148137)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.4864345624764</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.26222266413605</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.495964960514</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.259133148137</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.4911997614952</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.26067790613653</v>
       </c>
     </row>
@@ -24635,27 +24642,28 @@
       <c r="P4" t="n">
         <v>344.2252169984703</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.48675480340182 -36.26289940781127, 175.4962852443191 -36.25980988267899)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.4867548034018</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.26289940781127</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.4962852443191</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.25980988267899</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.4915200238605</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.26135464524513</v>
       </c>
     </row>
@@ -24712,27 +24720,28 @@
       <c r="P5" t="n">
         <v>352.5894614077003</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.48707504432707 -36.26357614562327, 175.49660552812455 -36.26048661135723)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.4870750443271</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.26357614562327</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.4966055281245</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.26048661135723</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.4918402862258</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.26203137849025</v>
       </c>
     </row>
@@ -24789,27 +24798,28 @@
       <c r="P6" t="n">
         <v>361.9395839737433</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.48752343546747 -36.26448606976018, 175.49672489563147 -36.260801540661745)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.4875234354675</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.26448606976018</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.4967248956315</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.26080154066175</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.4921241655495</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.26264380521096</v>
       </c>
     </row>
@@ -24866,27 +24876,28 @@
       <c r="P7" t="n">
         <v>364.5823460523288</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.48836833201887 -36.26563165730817, 175.49653387625378 -36.26059782539438)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.4883683320189</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.26563165730817</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.4965338762538</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.26059782539438</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.4924511041363</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.26311474135127</v>
       </c>
     </row>
@@ -24943,27 +24954,28 @@
       <c r="P8" t="n">
         <v>353.8069047353815</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.4892622121891 -36.26643613463339, 175.49669717721088 -36.260709729776195)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.4892622121891</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.26643613463339</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.4966971772109</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.2607097297762</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.4929796947</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.2635729322048</v>
       </c>
     </row>
@@ -25020,27 +25032,28 @@
       <c r="P9" t="n">
         <v>349.1708246818534</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.48987079888263 -36.266968896761206, 175.49730576429167 -36.2612424810549)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.4898707988826</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.26696889676121</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.4973057642917</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.2612424810549</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.4935882815872</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.26410568890805</v>
       </c>
     </row>
@@ -25097,27 +25110,28 @@
       <c r="P10" t="n">
         <v>355.9742330070047</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.49047938557658 -36.26750165525479, 175.49791435137178 -36.261775228699285)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.4904793855766</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.26750165525479</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.4979143513718</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.26177522869929</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.4941968684742</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.26463844197704</v>
       </c>
     </row>
@@ -25174,27 +25188,28 @@
       <c r="P11" t="n">
         <v>401.9499307841037</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.49108797227078 -36.26803441011411, 175.49852293845134 -36.262307972709415)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.4910879722708</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.26803441011411</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.4985229384513</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.26230797270942</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.4948054553611</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.26517119141177</v>
       </c>
     </row>
@@ -25251,27 +25266,28 @@
       <c r="P12" t="n">
         <v>363.5456586467977</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.49192288617564 -36.26874556631884, 175.49877857166734 -36.26256458550589)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.4919228861756</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.26874556631884</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.4987785716673</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.26256458550589</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.4953507289215</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.26565507591236</v>
       </c>
     </row>
@@ -25328,27 +25344,28 @@
       <c r="P13" t="n">
         <v>364.5175956196454</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.49303991940982 -36.26945695250527, 175.49882629459336 -36.262598192996016)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.4930399194098</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.26945695250527</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.4988262945934</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.26259819299602</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.4959331070016</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.26602757275064</v>
       </c>
     </row>
@@ -25405,27 +25422,28 @@
       <c r="P14" t="n">
         <v>361.9625924295535</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.49397751015394 -36.26993643907047, 175.49930919225432 -36.26284083980639)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.4939775101539</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.26993643907047</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.4993091922543</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.26284083980639</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.4966433512041</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.26638863943843</v>
       </c>
     </row>
@@ -25482,27 +25500,28 @@
       <c r="P15" t="n">
         <v>364.8544316174567</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.49473731367797 -36.270322845891265, 175.5000689649205 -36.26322723840345)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.494737313678</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.27032284589126</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.5000689649205</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.26322723840345</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.4974031392993</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.26677504214736</v>
       </c>
     </row>
@@ -25559,27 +25578,28 @@
       <c r="P16" t="n">
         <v>369.1863288112344</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.49564187078448 -36.27077742341319, 175.50060336778355 -36.26350842151514)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.4956418707845</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.27077742341319</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.5006033677836</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.26350842151514</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.498122619284</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.26714292246417</v>
       </c>
     </row>
@@ -25636,27 +25656,28 @@
       <c r="P17" t="n">
         <v>370.8844517569165</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.49700486820907 -36.27131964598584, 175.50050065363536 -36.263513109781506)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.4970048682091</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.27131964598584</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.5005006536354</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.26351310978151</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.4987527609222</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.26741637788368</v>
       </c>
     </row>
@@ -25713,27 +25734,28 @@
       <c r="P18" t="n">
         <v>362.3551418721394</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.49831283547604 -36.27160585604729, 175.50069030807987 -36.2635290003796)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.498312835476</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.27160585604729</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.5006903080799</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.2635290003796</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.499501571778</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.26756742821344</v>
       </c>
     </row>
@@ -25790,27 +25812,28 @@
       <c r="P19" t="n">
         <v>358.9981555921524</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.49918314458952 -36.27178535376702, 175.5015605606906 -36.26370849600941)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.4991831445895</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.27178535376702</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.5015605606906</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.26370849600941</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.5003718526401</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.26774692488821</v>
       </c>
     </row>
@@ -25867,27 +25890,28 @@
       <c r="P20" t="n">
         <v>364.5713927777999</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.50005345370334 -36.271964851073754, 175.50243081330066 -36.26388799122736)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.5000534537033</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.27196485107375</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.5024308133007</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.26388799122736</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.501242133502</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.26792642115056</v>
       </c>
     </row>
@@ -25944,27 +25968,28 @@
       <c r="P21" t="n">
         <v>377.217920910508</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.50108839123308 -36.27217342614082, 175.50304514169017 -36.26402313948358)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.5010883912331</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.27217342614082</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.5030451416902</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.26402313948358</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.5020667664616</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.2680982828122</v>
       </c>
     </row>
@@ -26021,27 +26046,28 @@
       <c r="P22" t="n">
         <v>383.4945991896157</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.50259576138288 -36.27235105729082, 175.50294350453422 -36.264053429434526)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.5025957613829</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.27235105729082</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.5029435045342</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.26405342943453</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.5027696329585</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.26820224336267</v>
       </c>
     </row>
@@ -26098,27 +26124,28 @@
       <c r="P23" t="n">
         <v>376.5902831160174</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.50395209232218 -36.27229716476525, 175.50312584464723 -36.264021721656356)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.5039520923222</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.27229716476525</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.5031258446472</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.26402172165636</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.5035389684847</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.26815944321081</v>
       </c>
     </row>
@@ -26175,27 +26202,28 @@
       <c r="P24" t="n">
         <v>383.7288362253749</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.50484860347612 -36.272251027547426, 175.50402229498954 -36.26397558956591)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.5048486034761</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.27225102754743</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.5040222949895</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.26397558956591</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.5044354492328</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.26811330855666</v>
       </c>
     </row>

--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y277"/>
+  <dimension ref="A1:Y279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21441,6 +21441,148 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>361.162962962963</v>
+      </c>
+      <c r="C278" t="n">
+        <v>356.4133333333333</v>
+      </c>
+      <c r="D278" t="n">
+        <v>359.58</v>
+      </c>
+      <c r="E278" t="n">
+        <v>364.2344444444445</v>
+      </c>
+      <c r="F278" t="n">
+        <v>380.48</v>
+      </c>
+      <c r="G278" t="n">
+        <v>376.8542105263158</v>
+      </c>
+      <c r="H278" t="n">
+        <v>370.6242105263158</v>
+      </c>
+      <c r="I278" t="n">
+        <v>361.075</v>
+      </c>
+      <c r="J278" t="n">
+        <v>362.5442105263158</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>374.7152380952381</v>
+      </c>
+      <c r="M278" t="n">
+        <v>381.2428571428572</v>
+      </c>
+      <c r="N278" t="n">
+        <v>377.1028571428572</v>
+      </c>
+      <c r="O278" t="n">
+        <v>381.2833333333334</v>
+      </c>
+      <c r="P278" t="n">
+        <v>383.8528571428572</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>386.6966666666667</v>
+      </c>
+      <c r="R278" t="n">
+        <v>378.5033333333334</v>
+      </c>
+      <c r="S278" t="n">
+        <v>381.0728571428572</v>
+      </c>
+      <c r="T278" t="n">
+        <v>380.2228571428572</v>
+      </c>
+      <c r="U278" t="n">
+        <v>390.87</v>
+      </c>
+      <c r="V278" t="n">
+        <v>394.2566666666667</v>
+      </c>
+      <c r="W278" t="n">
+        <v>378.8128571428572</v>
+      </c>
+      <c r="X278" t="n">
+        <v>389.26</v>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="n">
+        <v>372.2057894736842</v>
+      </c>
+      <c r="I279" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="J279" t="n">
+        <v>369.0457894736842</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>369.3142857142857</v>
+      </c>
+      <c r="M279" t="n">
+        <v>375.6214285714286</v>
+      </c>
+      <c r="N279" t="n">
+        <v>377.2514285714286</v>
+      </c>
+      <c r="O279" t="n">
+        <v>382.84</v>
+      </c>
+      <c r="P279" t="n">
+        <v>388.0814285714285</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>392.46</v>
+      </c>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="n">
+        <v>386.0714285714286</v>
+      </c>
+      <c r="U279" t="n">
+        <v>391.96</v>
+      </c>
+      <c r="V279" t="n">
+        <v>394.37</v>
+      </c>
+      <c r="W279" t="n">
+        <v>384.3114285714286</v>
+      </c>
+      <c r="X279" t="n">
+        <v>393.39</v>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21452,7 +21594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24290,6 +24432,26 @@
       </c>
       <c r="B283" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -24463,28 +24625,28 @@
         <v>0.1875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2178099370473695</v>
+        <v>0.2200173120090339</v>
       </c>
       <c r="J2" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02235523631593406</v>
+        <v>0.02299169050882444</v>
       </c>
       <c r="M2" t="n">
-        <v>7.600468574823338</v>
+        <v>7.577943951385859</v>
       </c>
       <c r="N2" t="n">
-        <v>99.94158260065262</v>
+        <v>99.54290275235718</v>
       </c>
       <c r="O2" t="n">
-        <v>9.997078703333921</v>
+        <v>9.977118960519473</v>
       </c>
       <c r="P2" t="n">
-        <v>353.0692942857783</v>
+        <v>353.0455018053044</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24541,28 +24703,28 @@
         <v>0.1671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2610274691418128</v>
+        <v>0.2670993219959071</v>
       </c>
       <c r="J3" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K3" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L3" t="n">
-        <v>0.030091079290675</v>
+        <v>0.03167410438176665</v>
       </c>
       <c r="M3" t="n">
-        <v>8.393012616261267</v>
+        <v>8.384250738600445</v>
       </c>
       <c r="N3" t="n">
-        <v>104.560375611155</v>
+        <v>104.3200183384711</v>
       </c>
       <c r="O3" t="n">
-        <v>10.22547679138508</v>
+        <v>10.21371716558037</v>
       </c>
       <c r="P3" t="n">
-        <v>342.8033714662371</v>
+        <v>342.737599635747</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24619,28 +24781,28 @@
         <v>0.1265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2179052035056223</v>
+        <v>0.2263851496156691</v>
       </c>
       <c r="J4" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K4" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01722968217604992</v>
+        <v>0.0186734874004223</v>
       </c>
       <c r="M4" t="n">
-        <v>9.216815719510713</v>
+        <v>9.219136736611185</v>
       </c>
       <c r="N4" t="n">
-        <v>128.7351537594478</v>
+        <v>128.5912373521669</v>
       </c>
       <c r="O4" t="n">
-        <v>11.34615149552692</v>
+        <v>11.33980764176213</v>
       </c>
       <c r="P4" t="n">
-        <v>344.2252169984703</v>
+        <v>344.1329357874257</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24697,28 +24859,28 @@
         <v>0.1118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1545300135928747</v>
+        <v>0.1611302405093151</v>
       </c>
       <c r="J5" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K5" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008497139312993895</v>
+        <v>0.009293222843078208</v>
       </c>
       <c r="M5" t="n">
-        <v>9.236363327374049</v>
+        <v>9.228661219487556</v>
       </c>
       <c r="N5" t="n">
-        <v>133.4644183290645</v>
+        <v>133.1501837071127</v>
       </c>
       <c r="O5" t="n">
-        <v>11.55268013618764</v>
+        <v>11.53907204705442</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5894614077003</v>
+        <v>352.5177821085214</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24775,28 +24937,28 @@
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1946902160894227</v>
+        <v>0.2061854459577816</v>
       </c>
       <c r="J6" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K6" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01275642632736829</v>
+        <v>0.01432915739171003</v>
       </c>
       <c r="M6" t="n">
-        <v>9.473686207294309</v>
+        <v>9.493165017998946</v>
       </c>
       <c r="N6" t="n">
-        <v>142.5311885266166</v>
+        <v>142.6939933511136</v>
       </c>
       <c r="O6" t="n">
-        <v>11.93864265846904</v>
+        <v>11.94545911010178</v>
       </c>
       <c r="P6" t="n">
-        <v>361.9395839737433</v>
+        <v>361.8156564844632</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24853,28 +25015,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1595961877289884</v>
+        <v>0.1664885293330694</v>
       </c>
       <c r="J7" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K7" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008899864083783515</v>
+        <v>0.009740629994149375</v>
       </c>
       <c r="M7" t="n">
-        <v>9.529722524466482</v>
+        <v>9.522729022380201</v>
       </c>
       <c r="N7" t="n">
-        <v>137.5072415990626</v>
+        <v>137.2160375596912</v>
       </c>
       <c r="O7" t="n">
-        <v>11.72634817831462</v>
+        <v>11.71392494254984</v>
       </c>
       <c r="P7" t="n">
-        <v>364.5823460523288</v>
+        <v>364.5085175986304</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24931,28 +25093,28 @@
         <v>0.1174</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1830099217158783</v>
+        <v>0.2044523674187757</v>
       </c>
       <c r="J8" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K8" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01331132276743485</v>
+        <v>0.01665703351408487</v>
       </c>
       <c r="M8" t="n">
-        <v>8.821859696606346</v>
+        <v>8.850058340294634</v>
       </c>
       <c r="N8" t="n">
-        <v>120.8759757021886</v>
+        <v>121.2195276646287</v>
       </c>
       <c r="O8" t="n">
-        <v>10.99436108658382</v>
+        <v>11.00997400835391</v>
       </c>
       <c r="P8" t="n">
-        <v>353.8069047353815</v>
+        <v>353.5776755621008</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25009,28 +25171,28 @@
         <v>0.0988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1918843350634142</v>
+        <v>0.2068373557332531</v>
       </c>
       <c r="J9" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K9" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01282196266539914</v>
+        <v>0.01503718574845192</v>
       </c>
       <c r="M9" t="n">
-        <v>9.189713332185681</v>
+        <v>9.177840590861036</v>
       </c>
       <c r="N9" t="n">
-        <v>136.4669313988267</v>
+        <v>136.0549920708344</v>
       </c>
       <c r="O9" t="n">
-        <v>11.68190615434085</v>
+        <v>11.66426131698165</v>
       </c>
       <c r="P9" t="n">
-        <v>349.1708246818534</v>
+        <v>349.0089930915127</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25087,28 +25249,28 @@
         <v>0.1124</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1034113016639877</v>
+        <v>0.1157159976519251</v>
       </c>
       <c r="J10" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K10" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00424899138816115</v>
+        <v>0.005384317836347519</v>
       </c>
       <c r="M10" t="n">
-        <v>8.648634560172663</v>
+        <v>8.627320229655563</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6127373109871</v>
+        <v>120.110871776385</v>
       </c>
       <c r="O10" t="n">
-        <v>10.98238304335571</v>
+        <v>10.95951056281187</v>
       </c>
       <c r="P10" t="n">
-        <v>355.9742330070047</v>
+        <v>355.8411304798785</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25168,7 +25330,7 @@
         <v>0.3627090610862141</v>
       </c>
       <c r="J11" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K11" t="n">
         <v>227</v>
@@ -25243,28 +25405,28 @@
         <v>0.1412</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1476975937340021</v>
+        <v>0.1553383954871292</v>
       </c>
       <c r="J12" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K12" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009283159554495657</v>
+        <v>0.01040542344011308</v>
       </c>
       <c r="M12" t="n">
-        <v>8.371227572677375</v>
+        <v>8.344096585604994</v>
       </c>
       <c r="N12" t="n">
-        <v>111.825772402939</v>
+        <v>111.1608952507896</v>
       </c>
       <c r="O12" t="n">
-        <v>10.5747705602977</v>
+        <v>10.54328673852654</v>
       </c>
       <c r="P12" t="n">
-        <v>363.5456586467977</v>
+        <v>363.4628673291478</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25321,28 +25483,28 @@
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.20981038470204</v>
+        <v>0.2234926832345615</v>
       </c>
       <c r="J13" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K13" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01566500881565869</v>
+        <v>0.01793980131963613</v>
       </c>
       <c r="M13" t="n">
-        <v>9.480078813752922</v>
+        <v>9.473147001253267</v>
       </c>
       <c r="N13" t="n">
-        <v>136.1124222054788</v>
+        <v>135.6559338409642</v>
       </c>
       <c r="O13" t="n">
-        <v>11.66672285628997</v>
+        <v>11.64714273291798</v>
       </c>
       <c r="P13" t="n">
-        <v>364.5175956196454</v>
+        <v>364.3712672713331</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25399,28 +25561,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2373317554623471</v>
+        <v>0.2520567965865331</v>
       </c>
       <c r="J14" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K14" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01879003909585986</v>
+        <v>0.02138756220087135</v>
       </c>
       <c r="M14" t="n">
-        <v>9.375004728146161</v>
+        <v>9.359802418354077</v>
       </c>
       <c r="N14" t="n">
-        <v>142.7007478724032</v>
+        <v>142.2139450865875</v>
       </c>
       <c r="O14" t="n">
-        <v>11.94574183014195</v>
+        <v>11.92534884548823</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9625924295535</v>
+        <v>361.8039288126428</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25477,28 +25639,28 @@
         <v>0.0848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1579435292969265</v>
+        <v>0.1789004104422349</v>
       </c>
       <c r="J15" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008498435142425431</v>
+        <v>0.01094915462320911</v>
       </c>
       <c r="M15" t="n">
-        <v>9.221036692234181</v>
+        <v>9.256492705413324</v>
       </c>
       <c r="N15" t="n">
-        <v>141.5031576046023</v>
+        <v>141.7237429058414</v>
       </c>
       <c r="O15" t="n">
-        <v>11.89550997665095</v>
+        <v>11.9047781544152</v>
       </c>
       <c r="P15" t="n">
-        <v>364.8544316174567</v>
+        <v>364.6289344758618</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25555,28 +25717,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2610921206223</v>
+        <v>0.2770328151551394</v>
       </c>
       <c r="J16" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K16" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02430393620152926</v>
+        <v>0.02754042463990358</v>
       </c>
       <c r="M16" t="n">
-        <v>9.490250845417473</v>
+        <v>9.493746341994132</v>
       </c>
       <c r="N16" t="n">
-        <v>133.8322213050248</v>
+        <v>133.596588563588</v>
       </c>
       <c r="O16" t="n">
-        <v>11.56858769707974</v>
+        <v>11.55839904846636</v>
       </c>
       <c r="P16" t="n">
-        <v>369.1863288112344</v>
+        <v>369.0149982925122</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25633,28 +25795,28 @@
         <v>0.068</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3980210702437736</v>
+        <v>0.4116106519044443</v>
       </c>
       <c r="J17" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K17" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06037246181656253</v>
+        <v>0.06496796789406045</v>
       </c>
       <c r="M17" t="n">
-        <v>8.891418056741658</v>
+        <v>8.889459134455379</v>
       </c>
       <c r="N17" t="n">
-        <v>122.0549155607293</v>
+        <v>121.7084463841826</v>
       </c>
       <c r="O17" t="n">
-        <v>11.04784664813597</v>
+        <v>11.03215511059297</v>
       </c>
       <c r="P17" t="n">
-        <v>370.8844517569165</v>
+        <v>370.7398132919554</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25711,28 +25873,28 @@
         <v>0.0901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3501521342121762</v>
+        <v>0.3559524982466864</v>
       </c>
       <c r="J18" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K18" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04477666648669032</v>
+        <v>0.04649500545050567</v>
       </c>
       <c r="M18" t="n">
-        <v>9.120272273922096</v>
+        <v>9.11198926532535</v>
       </c>
       <c r="N18" t="n">
-        <v>128.565406947106</v>
+        <v>128.2574841245282</v>
       </c>
       <c r="O18" t="n">
-        <v>11.33866865849364</v>
+        <v>11.32508208025568</v>
       </c>
       <c r="P18" t="n">
-        <v>362.3551418721394</v>
+        <v>362.2933943283138</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25789,28 +25951,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3265911514964226</v>
+        <v>0.3375834617280445</v>
       </c>
       <c r="J19" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K19" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0427532230731632</v>
+        <v>0.04562654521287668</v>
       </c>
       <c r="M19" t="n">
-        <v>8.617636714468635</v>
+        <v>8.636810852118773</v>
       </c>
       <c r="N19" t="n">
-        <v>118.4508329982573</v>
+        <v>118.7190531260631</v>
       </c>
       <c r="O19" t="n">
-        <v>10.88351197905608</v>
+        <v>10.89582732636963</v>
       </c>
       <c r="P19" t="n">
-        <v>358.9981555921524</v>
+        <v>358.8814876156653</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25867,28 +26029,28 @@
         <v>0.0765</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3244944327245642</v>
+        <v>0.3413414874491114</v>
       </c>
       <c r="J20" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K20" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04261535286220819</v>
+        <v>0.04733633284832217</v>
       </c>
       <c r="M20" t="n">
-        <v>8.814773127468712</v>
+        <v>8.819672428785003</v>
       </c>
       <c r="N20" t="n">
-        <v>115.2698020508982</v>
+        <v>115.2361426801701</v>
       </c>
       <c r="O20" t="n">
-        <v>10.73637751063636</v>
+        <v>10.7348098576626</v>
       </c>
       <c r="P20" t="n">
-        <v>364.5713927777999</v>
+        <v>364.3903218234234</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25945,28 +26107,28 @@
         <v>0.0572</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2226347106207151</v>
+        <v>0.2365713376160312</v>
       </c>
       <c r="J21" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K21" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0179486476084979</v>
+        <v>0.02046334872929256</v>
       </c>
       <c r="M21" t="n">
-        <v>9.120509813894424</v>
+        <v>9.120278892332184</v>
       </c>
       <c r="N21" t="n">
-        <v>132.563815477098</v>
+        <v>132.0599992226793</v>
       </c>
       <c r="O21" t="n">
-        <v>11.51363606672966</v>
+        <v>11.49173612743868</v>
       </c>
       <c r="P21" t="n">
-        <v>377.217920910508</v>
+        <v>377.0683377077304</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26023,28 +26185,28 @@
         <v>0.065</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1239097478799962</v>
+        <v>0.136472424370248</v>
       </c>
       <c r="J22" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K22" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006771816108931961</v>
+        <v>0.008305887789370581</v>
       </c>
       <c r="M22" t="n">
-        <v>8.49405506120336</v>
+        <v>8.481487986118353</v>
       </c>
       <c r="N22" t="n">
-        <v>110.9950603997133</v>
+        <v>110.5557794719201</v>
       </c>
       <c r="O22" t="n">
-        <v>10.53541932718927</v>
+        <v>10.51455084499191</v>
       </c>
       <c r="P22" t="n">
-        <v>383.4945991896157</v>
+        <v>383.3609419741305</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26101,28 +26263,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09860825760773273</v>
+        <v>0.102672871202544</v>
       </c>
       <c r="J23" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K23" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004865154513646885</v>
+        <v>0.005355373055077939</v>
       </c>
       <c r="M23" t="n">
-        <v>8.040039019555536</v>
+        <v>7.995527107749583</v>
       </c>
       <c r="N23" t="n">
-        <v>97.48839026630064</v>
+        <v>96.7988494082893</v>
       </c>
       <c r="O23" t="n">
-        <v>9.873620929846387</v>
+        <v>9.838640628068966</v>
       </c>
       <c r="P23" t="n">
-        <v>376.5902831160174</v>
+        <v>376.5467354263657</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26179,28 +26341,28 @@
         <v>0.0539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05846453450593104</v>
+        <v>0.06854720093774107</v>
       </c>
       <c r="J24" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K24" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001068358595808006</v>
+        <v>0.001489777131488013</v>
       </c>
       <c r="M24" t="n">
-        <v>9.892856224046234</v>
+        <v>9.861077586949415</v>
       </c>
       <c r="N24" t="n">
-        <v>154.5026343203385</v>
+        <v>153.5870905465781</v>
       </c>
       <c r="O24" t="n">
-        <v>12.42990886210911</v>
+        <v>12.39302588339822</v>
       </c>
       <c r="P24" t="n">
-        <v>383.7288362253749</v>
+        <v>383.6204408524291</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26238,7 +26400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y277"/>
+  <dimension ref="A1:Y279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58469,6 +58631,220 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>-36.26033674359832,175.4898446744986</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>-36.26102938850208,175.49011588614496</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>-36.26169552250177,175.4904688622237</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>-36.26235666911109,175.4908372057235</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>-36.26296671072698,175.49131807969948</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>-36.26357509347612,175.49170458242557</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>-36.26413489362791,175.49225026085622</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>-36.26472693916339,175.49278186891647</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>-36.26525056557041,175.4934023072703</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>-36.26623389194742,175.49470890797127</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>-36.26662072557327,175.49543284105124</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>-36.267033912488685,175.49615862132546</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>-36.267388134178354,175.49694259410055</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>-36.267750557723105,175.49770799780134</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>-36.26804424897915,175.49847168331647</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>-36.26828851087171,175.49928937166501</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>-36.26844548510367,175.5001662871962</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>-36.26863242895596,175.50103438081956</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>-36.268716446091275,175.50191840014784</t>
+        </is>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>-36.26880087887926,175.5027445475688</t>
+        </is>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>-36.268895194422335,175.50361240066263</t>
+        </is>
+      </c>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>-36.2687552386745,175.50449951853918</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>-36.26412507330641,175.49226301149415</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>-36.264700705250036,175.4928159308536</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>-36.265210195721735,175.49345472308164</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>-36.266270094346744,175.4946687529509</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>-36.26666254606718,175.49539755864012</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>-36.26703276894099,175.49615948061117</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>-36.267376152548636,175.4969515972756</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>-36.267717213217225,175.49773075765447</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>-36.26799543229713,175.49849354387803</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>-36.268581169733416,175.501049468808</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>-36.268706805773945,175.5019207146628</t>
+        </is>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>-36.26879985834194,175.50274459033844</t>
+        </is>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>-36.26884581387103,175.50360747022754</t>
+        </is>
+      </c>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>-36.268718148769096,175.50449581500806</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y279"/>
+  <dimension ref="A1:Y280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21583,6 +21583,87 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>358.312962962963</v>
+      </c>
+      <c r="C280" t="n">
+        <v>351.5933333333333</v>
+      </c>
+      <c r="D280" t="n">
+        <v>350.06</v>
+      </c>
+      <c r="E280" t="n">
+        <v>354.1144444444445</v>
+      </c>
+      <c r="F280" t="n">
+        <v>363.72</v>
+      </c>
+      <c r="G280" t="n">
+        <v>374.0321052631579</v>
+      </c>
+      <c r="H280" t="n">
+        <v>352.5321052631579</v>
+      </c>
+      <c r="I280" t="n">
+        <v>348.04</v>
+      </c>
+      <c r="J280" t="n">
+        <v>357.642105263158</v>
+      </c>
+      <c r="K280" t="n">
+        <v>416.0666666666667</v>
+      </c>
+      <c r="L280" t="n">
+        <v>357.8238095238096</v>
+      </c>
+      <c r="M280" t="n">
+        <v>357.5157142857143</v>
+      </c>
+      <c r="N280" t="n">
+        <v>354.9257142857143</v>
+      </c>
+      <c r="O280" t="n">
+        <v>357.7833333333334</v>
+      </c>
+      <c r="P280" t="n">
+        <v>369.2857142857143</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>370.4666666666667</v>
+      </c>
+      <c r="R280" t="n">
+        <v>365.7033333333333</v>
+      </c>
+      <c r="S280" t="n">
+        <v>359.5457142857143</v>
+      </c>
+      <c r="T280" t="n">
+        <v>369.2857142857143</v>
+      </c>
+      <c r="U280" t="n">
+        <v>368.41</v>
+      </c>
+      <c r="V280" t="n">
+        <v>380.3066666666667</v>
+      </c>
+      <c r="W280" t="n">
+        <v>373.6257142857143</v>
+      </c>
+      <c r="X280" t="n">
+        <v>379.52</v>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21594,7 +21675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24452,6 +24533,16 @@
       </c>
       <c r="B285" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -24625,28 +24716,28 @@
         <v>0.1875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2200173120090339</v>
+        <v>0.2196358315279365</v>
       </c>
       <c r="J2" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02299169050882444</v>
+        <v>0.02311995426610236</v>
       </c>
       <c r="M2" t="n">
-        <v>7.577943951385859</v>
+        <v>7.547775669421065</v>
       </c>
       <c r="N2" t="n">
-        <v>99.54290275235718</v>
+        <v>99.12187877133579</v>
       </c>
       <c r="O2" t="n">
-        <v>9.977118960519473</v>
+        <v>9.955997125920426</v>
       </c>
       <c r="P2" t="n">
-        <v>353.0455018053044</v>
+        <v>353.0496650144311</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24703,28 +24794,28 @@
         <v>0.1671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2670993219959071</v>
+        <v>0.26882592997483</v>
       </c>
       <c r="J3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K3" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03167410438176665</v>
+        <v>0.03235305535760769</v>
       </c>
       <c r="M3" t="n">
-        <v>8.384250738600445</v>
+        <v>8.356467594529505</v>
       </c>
       <c r="N3" t="n">
-        <v>104.3200183384711</v>
+        <v>103.8990834149004</v>
       </c>
       <c r="O3" t="n">
-        <v>10.21371716558037</v>
+        <v>10.19308998365561</v>
       </c>
       <c r="P3" t="n">
-        <v>342.737599635747</v>
+        <v>342.7186669990764</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24781,28 +24872,28 @@
         <v>0.1265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2263851496156691</v>
+        <v>0.2264434126204017</v>
       </c>
       <c r="J4" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K4" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0186734874004223</v>
+        <v>0.01884881459050725</v>
       </c>
       <c r="M4" t="n">
-        <v>9.219136736611185</v>
+        <v>9.180995940274419</v>
       </c>
       <c r="N4" t="n">
-        <v>128.5912373521669</v>
+        <v>128.0554585250463</v>
       </c>
       <c r="O4" t="n">
-        <v>11.33980764176213</v>
+        <v>11.31615917725826</v>
       </c>
       <c r="P4" t="n">
-        <v>344.1329357874257</v>
+        <v>344.1322938951594</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24859,28 +24950,28 @@
         <v>0.1118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1611302405093151</v>
+        <v>0.1588855555207</v>
       </c>
       <c r="J5" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009293222843078208</v>
+        <v>0.009116562367308179</v>
       </c>
       <c r="M5" t="n">
-        <v>9.228661219487556</v>
+        <v>9.201115197978167</v>
       </c>
       <c r="N5" t="n">
-        <v>133.1501837071127</v>
+        <v>132.6226571764709</v>
       </c>
       <c r="O5" t="n">
-        <v>11.53907204705442</v>
+        <v>11.51619108804951</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5177821085214</v>
+        <v>352.5424664252336</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24937,28 +25028,28 @@
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2061854459577816</v>
+        <v>0.2032284822140878</v>
       </c>
       <c r="J6" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01432915739171003</v>
+        <v>0.01404344039035643</v>
       </c>
       <c r="M6" t="n">
-        <v>9.493165017998946</v>
+        <v>9.467045511315209</v>
       </c>
       <c r="N6" t="n">
-        <v>142.6939933511136</v>
+        <v>142.1479255541378</v>
       </c>
       <c r="O6" t="n">
-        <v>11.94545911010178</v>
+        <v>11.92258049057073</v>
       </c>
       <c r="P6" t="n">
-        <v>361.8156564844632</v>
+        <v>361.8479431491925</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25015,28 +25106,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1664885293330694</v>
+        <v>0.1709446434793871</v>
       </c>
       <c r="J7" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K7" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009740629994149375</v>
+        <v>0.01034591908422544</v>
       </c>
       <c r="M7" t="n">
-        <v>9.522729022380201</v>
+        <v>9.504045498217803</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2160375596912</v>
+        <v>136.7673117801867</v>
       </c>
       <c r="O7" t="n">
-        <v>11.71392494254984</v>
+        <v>11.69475573837208</v>
       </c>
       <c r="P7" t="n">
-        <v>364.5085175986304</v>
+        <v>364.4601897939843</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25093,28 +25184,28 @@
         <v>0.1174</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2044523674187757</v>
+        <v>0.1991286570517613</v>
       </c>
       <c r="J8" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K8" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01665703351408487</v>
+        <v>0.0159297185276378</v>
       </c>
       <c r="M8" t="n">
-        <v>8.850058340294634</v>
+        <v>8.840825453422884</v>
       </c>
       <c r="N8" t="n">
-        <v>121.2195276646287</v>
+        <v>120.8906978474619</v>
       </c>
       <c r="O8" t="n">
-        <v>11.00997400835391</v>
+        <v>10.9950305978411</v>
       </c>
       <c r="P8" t="n">
-        <v>353.5776755621008</v>
+        <v>353.6352170333175</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25171,28 +25262,28 @@
         <v>0.0988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2068373557332531</v>
+        <v>0.2015786029908534</v>
       </c>
       <c r="J9" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K9" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01503718574845192</v>
+        <v>0.01439679491828183</v>
       </c>
       <c r="M9" t="n">
-        <v>9.177840590861036</v>
+        <v>9.169805478606012</v>
       </c>
       <c r="N9" t="n">
-        <v>136.0549920708344</v>
+        <v>135.6687468178767</v>
       </c>
       <c r="O9" t="n">
-        <v>11.66426131698165</v>
+        <v>11.64769276800675</v>
       </c>
       <c r="P9" t="n">
-        <v>349.0089930915127</v>
+        <v>349.0665234815366</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25249,28 +25340,28 @@
         <v>0.1124</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1157159976519251</v>
+        <v>0.1146799263482333</v>
       </c>
       <c r="J10" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K10" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005384317836347519</v>
+        <v>0.005335504967125315</v>
       </c>
       <c r="M10" t="n">
-        <v>8.627320229655563</v>
+        <v>8.596927614150543</v>
       </c>
       <c r="N10" t="n">
-        <v>120.110871776385</v>
+        <v>119.6162808695441</v>
       </c>
       <c r="O10" t="n">
-        <v>10.95951056281187</v>
+        <v>10.93692282452172</v>
       </c>
       <c r="P10" t="n">
-        <v>355.8411304798785</v>
+        <v>355.8524553111458</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25327,28 +25418,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3627090610862141</v>
+        <v>0.3669613088960878</v>
       </c>
       <c r="J11" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K11" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02246600782588137</v>
+        <v>0.02318401337016984</v>
       </c>
       <c r="M11" t="n">
-        <v>12.93089325885327</v>
+        <v>12.89331811331219</v>
       </c>
       <c r="N11" t="n">
-        <v>282.2951536952226</v>
+        <v>281.1536736499291</v>
       </c>
       <c r="O11" t="n">
-        <v>16.80164139884025</v>
+        <v>16.76763768841422</v>
       </c>
       <c r="P11" t="n">
-        <v>401.9499307841037</v>
+        <v>401.9037966674469</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25405,28 +25496,28 @@
         <v>0.1412</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1553383954871292</v>
+        <v>0.1473404321127764</v>
       </c>
       <c r="J12" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01040542344011308</v>
+        <v>0.009419021972343566</v>
       </c>
       <c r="M12" t="n">
-        <v>8.344096585604994</v>
+        <v>8.346432851139694</v>
       </c>
       <c r="N12" t="n">
-        <v>111.1608952507896</v>
+        <v>111.0852533711472</v>
       </c>
       <c r="O12" t="n">
-        <v>10.54328673852654</v>
+        <v>10.53969892222483</v>
       </c>
       <c r="P12" t="n">
-        <v>363.4628673291478</v>
+        <v>363.550574937661</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25483,28 +25574,28 @@
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2234926832345615</v>
+        <v>0.2132201831347503</v>
       </c>
       <c r="J13" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01793980131963613</v>
+        <v>0.01641424679736758</v>
       </c>
       <c r="M13" t="n">
-        <v>9.473147001253267</v>
+        <v>9.484541917507681</v>
       </c>
       <c r="N13" t="n">
-        <v>135.6559338409642</v>
+        <v>135.7443688018615</v>
       </c>
       <c r="O13" t="n">
-        <v>11.64714273291798</v>
+        <v>11.65093853738236</v>
       </c>
       <c r="P13" t="n">
-        <v>364.3712672713331</v>
+        <v>364.4824488297617</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25561,28 +25652,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2520567965865331</v>
+        <v>0.2411100117643014</v>
       </c>
       <c r="J14" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K14" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02138756220087135</v>
+        <v>0.01967166233126094</v>
       </c>
       <c r="M14" t="n">
-        <v>9.359802418354077</v>
+        <v>9.384891801323521</v>
       </c>
       <c r="N14" t="n">
-        <v>142.2139450865875</v>
+        <v>142.3532594815508</v>
       </c>
       <c r="O14" t="n">
-        <v>11.92534884548823</v>
+        <v>11.93118851923608</v>
       </c>
       <c r="P14" t="n">
-        <v>361.8039288126428</v>
+        <v>361.9232112531845</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25639,28 +25730,28 @@
         <v>0.0848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1789004104422349</v>
+        <v>0.169644416423659</v>
       </c>
       <c r="J15" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K15" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01094915462320911</v>
+        <v>0.009902036722672092</v>
       </c>
       <c r="M15" t="n">
-        <v>9.256492705413324</v>
+        <v>9.261460081303508</v>
       </c>
       <c r="N15" t="n">
-        <v>141.7237429058414</v>
+        <v>141.678459356581</v>
       </c>
       <c r="O15" t="n">
-        <v>11.9047781544152</v>
+        <v>11.90287609599382</v>
       </c>
       <c r="P15" t="n">
-        <v>364.6289344758618</v>
+        <v>364.7296458927332</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25717,28 +25808,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2770328151551394</v>
+        <v>0.271512285329539</v>
       </c>
       <c r="J16" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K16" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02754042463990358</v>
+        <v>0.02665825904207664</v>
       </c>
       <c r="M16" t="n">
-        <v>9.493746341994132</v>
+        <v>9.483659489853959</v>
       </c>
       <c r="N16" t="n">
-        <v>133.596588563588</v>
+        <v>133.2585443391654</v>
       </c>
       <c r="O16" t="n">
-        <v>11.55839904846636</v>
+        <v>11.54376647109449</v>
       </c>
       <c r="P16" t="n">
-        <v>369.0149982925122</v>
+        <v>369.0749925154867</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25795,28 +25886,28 @@
         <v>0.068</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4116106519044443</v>
+        <v>0.402762921968283</v>
       </c>
       <c r="J17" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K17" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06496796789406045</v>
+        <v>0.0626405577764737</v>
       </c>
       <c r="M17" t="n">
-        <v>8.889459134455379</v>
+        <v>8.896254459346828</v>
       </c>
       <c r="N17" t="n">
-        <v>121.7084463841826</v>
+        <v>121.6936844115644</v>
       </c>
       <c r="O17" t="n">
-        <v>11.03215511059297</v>
+        <v>11.03148604729047</v>
       </c>
       <c r="P17" t="n">
-        <v>370.7398132919554</v>
+        <v>370.8350154415807</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25873,28 +25964,28 @@
         <v>0.0901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3559524982466864</v>
+        <v>0.3511912903017271</v>
       </c>
       <c r="J18" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K18" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04649500545050567</v>
+        <v>0.04564012099910586</v>
       </c>
       <c r="M18" t="n">
-        <v>9.11198926532535</v>
+        <v>9.099116200229279</v>
       </c>
       <c r="N18" t="n">
-        <v>128.2574841245282</v>
+        <v>127.8820971125994</v>
       </c>
       <c r="O18" t="n">
-        <v>11.32508208025568</v>
+        <v>11.30849667783474</v>
       </c>
       <c r="P18" t="n">
-        <v>362.2933943283138</v>
+        <v>362.3447245042103</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25951,28 +26042,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3375834617280445</v>
+        <v>0.3310080501274852</v>
       </c>
       <c r="J19" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K19" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04562654521287668</v>
+        <v>0.04420784856326276</v>
       </c>
       <c r="M19" t="n">
-        <v>8.636810852118773</v>
+        <v>8.634861906766902</v>
       </c>
       <c r="N19" t="n">
-        <v>118.7190531260631</v>
+        <v>118.5035411840206</v>
       </c>
       <c r="O19" t="n">
-        <v>10.89582732636963</v>
+        <v>10.88593317929247</v>
       </c>
       <c r="P19" t="n">
-        <v>358.8814876156653</v>
+        <v>358.9521793229084</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26029,28 +26120,28 @@
         <v>0.0765</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3413414874491114</v>
+        <v>0.3380669339378853</v>
       </c>
       <c r="J20" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K20" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04733633284832217</v>
+        <v>0.04682942559869363</v>
       </c>
       <c r="M20" t="n">
-        <v>8.819672428785003</v>
+        <v>8.801003170819351</v>
       </c>
       <c r="N20" t="n">
-        <v>115.2361426801701</v>
+        <v>114.8333460835235</v>
       </c>
       <c r="O20" t="n">
-        <v>10.7348098576626</v>
+        <v>10.71603219869759</v>
       </c>
       <c r="P20" t="n">
-        <v>364.3903218234234</v>
+        <v>364.4258999111349</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26107,28 +26198,28 @@
         <v>0.0572</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2365713376160312</v>
+        <v>0.224287898831008</v>
       </c>
       <c r="J21" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K21" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02046334872929256</v>
+        <v>0.01846593180725986</v>
       </c>
       <c r="M21" t="n">
-        <v>9.120278892332184</v>
+        <v>9.13816736412368</v>
       </c>
       <c r="N21" t="n">
-        <v>132.0599992226793</v>
+        <v>132.3990511687008</v>
       </c>
       <c r="O21" t="n">
-        <v>11.49173612743868</v>
+        <v>11.50647866068072</v>
       </c>
       <c r="P21" t="n">
-        <v>377.0683377077304</v>
+        <v>377.2016663340709</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26185,28 +26276,28 @@
         <v>0.065</v>
       </c>
       <c r="I22" t="n">
-        <v>0.136472424370248</v>
+        <v>0.1309922222137577</v>
       </c>
       <c r="J22" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K22" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008305887789370581</v>
+        <v>0.007710863847150251</v>
       </c>
       <c r="M22" t="n">
-        <v>8.481487986118353</v>
+        <v>8.475923720083694</v>
       </c>
       <c r="N22" t="n">
-        <v>110.5557794719201</v>
+        <v>110.2816589585287</v>
       </c>
       <c r="O22" t="n">
-        <v>10.51455084499191</v>
+        <v>10.50150746124235</v>
       </c>
       <c r="P22" t="n">
-        <v>383.3609419741305</v>
+        <v>383.4199090352923</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26263,28 +26354,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.102672871202544</v>
+        <v>0.09799368755875314</v>
       </c>
       <c r="J23" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K23" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005355373055077939</v>
+        <v>0.004916430512222791</v>
       </c>
       <c r="M23" t="n">
-        <v>7.995527107749583</v>
+        <v>7.986674602021436</v>
       </c>
       <c r="N23" t="n">
-        <v>96.7988494082893</v>
+        <v>96.52919386388533</v>
       </c>
       <c r="O23" t="n">
-        <v>9.838640628068966</v>
+        <v>9.824927168375618</v>
       </c>
       <c r="P23" t="n">
-        <v>376.5467354263657</v>
+        <v>376.5973512902337</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26341,28 +26432,28 @@
         <v>0.0539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06854720093774107</v>
+        <v>0.06363560336404647</v>
       </c>
       <c r="J24" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K24" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001489777131488013</v>
+        <v>0.001294164062599745</v>
       </c>
       <c r="M24" t="n">
-        <v>9.861077586949415</v>
+        <v>9.845494371478603</v>
       </c>
       <c r="N24" t="n">
-        <v>153.5870905465781</v>
+        <v>153.109073640977</v>
       </c>
       <c r="O24" t="n">
-        <v>12.39302588339822</v>
+        <v>12.37372513194701</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6204408524291</v>
+        <v>383.6738024793422</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26400,7 +26491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y279"/>
+  <dimension ref="A1:Y280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33645,7 +33736,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>-36.26778677480887,175.49768327719633</t>
+          <t>-36.26778677480886,175.49768327719633</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -39445,7 +39536,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.261023071631165,175.49013537284293</t>
+          <t>-36.26102307163116,175.49013537284293</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -41665,7 +41756,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-36.26670700225173,175.49536005254478</t>
+          <t>-36.26670700225172,175.49536005254478</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -49997,7 +50088,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>-36.26762337937472,175.4967658267211</t>
+          <t>-36.26762337937471,175.4967658267211</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -58104,7 +58195,7 @@
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>-36.26872109687302,175.5027478911465</t>
+          <t>-36.268721096873016,175.5027478911465</t>
         </is>
       </c>
       <c r="W273" t="inlineStr">
@@ -58485,7 +58576,7 @@
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>-36.26879427540247,175.50274482431345</t>
+          <t>-36.26879427540248,175.50274482431345</t>
         </is>
       </c>
       <c r="W276" t="inlineStr">
@@ -58845,6 +58936,133 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>-36.26034628581715,175.4898152381055</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>-36.26104552664251,175.49006610209244</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>-36.26172739719925,175.4903705328269</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>-36.26239055295731,175.4907326783543</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>-36.26303364034228,175.4911509302694</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>-36.263590494555146,175.49167959928613</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>-36.264247230827394,175.49210440266503</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>-36.26480787616287,175.49267678064214</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>-36.265281003892895,175.49336278640007</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>-36.26545097530575,175.4944423989706</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>-36.2663471145754,175.494583323394</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>-36.26679724306668,175.49528391943622</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>-36.26720460891489,175.49603035613694</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>-36.267569013098694,175.49680667860466</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>-36.26786542726417,175.49762959150127</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>-36.26818172057786,175.4984101221176</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>-36.268400694977565,175.4992563489693</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>-36.26863415741313,175.50011075062224</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>-36.2687282864525,175.5010061654225</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>-36.2689150896861,175.50187070828844</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>-36.26892649501613,175.5027392831281</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>-36.26894177815288,175.50361705185466</t>
+        </is>
+      </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>-36.26884270978129,175.50450825279276</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y280"/>
+  <dimension ref="A1:Y281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21664,6 +21664,81 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>371.9737037037037</v>
+      </c>
+      <c r="C281" t="n">
+        <v>348.4466666666667</v>
+      </c>
+      <c r="D281" t="n">
+        <v>352.66</v>
+      </c>
+      <c r="E281" t="n">
+        <v>352.4955555555555</v>
+      </c>
+      <c r="F281" t="n">
+        <v>360.19</v>
+      </c>
+      <c r="G281" t="n">
+        <v>372.7226315789474</v>
+      </c>
+      <c r="H281" t="n">
+        <v>361.9526315789473</v>
+      </c>
+      <c r="I281" t="n">
+        <v>347.735</v>
+      </c>
+      <c r="J281" t="n">
+        <v>354.6626315789474</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>359.6947619047619</v>
+      </c>
+      <c r="M281" t="n">
+        <v>359.5871428571429</v>
+      </c>
+      <c r="N281" t="n">
+        <v>358.6371428571428</v>
+      </c>
+      <c r="O281" t="n">
+        <v>364.1966666666667</v>
+      </c>
+      <c r="P281" t="n">
+        <v>375.7471428571428</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>380.9833333333333</v>
+      </c>
+      <c r="R281" t="n">
+        <v>380.0366666666667</v>
+      </c>
+      <c r="S281" t="n">
+        <v>372.3271428571429</v>
+      </c>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="n">
+        <v>392.2733333333333</v>
+      </c>
+      <c r="W281" t="n">
+        <v>384.0271428571429</v>
+      </c>
+      <c r="X281" t="n">
+        <v>395.86</v>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21675,7 +21750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24543,6 +24618,16 @@
       </c>
       <c r="B286" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -24716,28 +24801,28 @@
         <v>0.1875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2196358315279365</v>
+        <v>0.231304026420009</v>
       </c>
       <c r="J2" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02311995426610236</v>
+        <v>0.02562051352314354</v>
       </c>
       <c r="M2" t="n">
-        <v>7.547775669421065</v>
+        <v>7.567401621654466</v>
       </c>
       <c r="N2" t="n">
-        <v>99.12187877133579</v>
+        <v>99.43221340659241</v>
       </c>
       <c r="O2" t="n">
-        <v>9.955997125920426</v>
+        <v>9.971570257817593</v>
       </c>
       <c r="P2" t="n">
-        <v>353.0496650144311</v>
+        <v>352.9220893733967</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24794,28 +24879,28 @@
         <v>0.1671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.26882592997483</v>
+        <v>0.2677295995985821</v>
       </c>
       <c r="J3" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03235305535760769</v>
+        <v>0.03237989141380915</v>
       </c>
       <c r="M3" t="n">
-        <v>8.356467594529505</v>
+        <v>8.327279973851542</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8990834149004</v>
+        <v>103.4725279506435</v>
       </c>
       <c r="O3" t="n">
-        <v>10.19308998365561</v>
+        <v>10.17214470751589</v>
       </c>
       <c r="P3" t="n">
-        <v>342.7186669990764</v>
+        <v>342.7307105074794</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24872,28 +24957,28 @@
         <v>0.1265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2264434126204017</v>
+        <v>0.2287616495235646</v>
       </c>
       <c r="J4" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K4" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01884881459050725</v>
+        <v>0.01939412779772742</v>
       </c>
       <c r="M4" t="n">
-        <v>9.180995940274419</v>
+        <v>9.153644476587038</v>
       </c>
       <c r="N4" t="n">
-        <v>128.0554585250463</v>
+        <v>127.5529847510227</v>
       </c>
       <c r="O4" t="n">
-        <v>11.31615917725826</v>
+        <v>11.2939357511464</v>
       </c>
       <c r="P4" t="n">
-        <v>344.1322938951594</v>
+        <v>344.1067063604246</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24950,28 +25035,28 @@
         <v>0.1118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1588855555207</v>
+        <v>0.1552839428517646</v>
       </c>
       <c r="J5" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K5" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009116562367308179</v>
+        <v>0.008783278046237242</v>
       </c>
       <c r="M5" t="n">
-        <v>9.201115197978167</v>
+        <v>9.180513877494391</v>
       </c>
       <c r="N5" t="n">
-        <v>132.6226571764709</v>
+        <v>132.1434857253406</v>
       </c>
       <c r="O5" t="n">
-        <v>11.51619108804951</v>
+        <v>11.49536801174023</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5424664252336</v>
+        <v>352.582146827658</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25028,28 +25113,28 @@
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2032284822140878</v>
+        <v>0.1973129202719858</v>
       </c>
       <c r="J6" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K6" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01404344039035643</v>
+        <v>0.0133447382691404</v>
       </c>
       <c r="M6" t="n">
-        <v>9.467045511315209</v>
+        <v>9.454511002767148</v>
       </c>
       <c r="N6" t="n">
-        <v>142.1479255541378</v>
+        <v>141.7547232933863</v>
       </c>
       <c r="O6" t="n">
-        <v>11.92258049057073</v>
+        <v>11.90607925781558</v>
       </c>
       <c r="P6" t="n">
-        <v>361.8479431491925</v>
+        <v>361.9126575372795</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25106,28 +25191,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1709446434793871</v>
+        <v>0.1741897480983512</v>
       </c>
       <c r="J7" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K7" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01034591908422544</v>
+        <v>0.01082740306616981</v>
       </c>
       <c r="M7" t="n">
-        <v>9.504045498217803</v>
+        <v>9.480026520024433</v>
       </c>
       <c r="N7" t="n">
-        <v>136.7673117801867</v>
+        <v>136.2722079460713</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69475573837208</v>
+        <v>11.67356877506066</v>
       </c>
       <c r="P7" t="n">
-        <v>364.4601897939843</v>
+        <v>364.424930292007</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25184,28 +25269,28 @@
         <v>0.1174</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1991286570517613</v>
+        <v>0.2017549825192763</v>
       </c>
       <c r="J8" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K8" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0159297185276378</v>
+        <v>0.01647988436530134</v>
       </c>
       <c r="M8" t="n">
-        <v>8.840825453422884</v>
+        <v>8.817386492563827</v>
       </c>
       <c r="N8" t="n">
-        <v>120.8906978474619</v>
+        <v>120.4446268047666</v>
       </c>
       <c r="O8" t="n">
-        <v>10.9950305978411</v>
+        <v>10.97472673030024</v>
       </c>
       <c r="P8" t="n">
-        <v>353.6352170333175</v>
+        <v>353.6067768175241</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25262,28 +25347,28 @@
         <v>0.0988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2015786029908534</v>
+        <v>0.1961683365831373</v>
       </c>
       <c r="J9" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K9" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01439679491828183</v>
+        <v>0.01374177386889963</v>
       </c>
       <c r="M9" t="n">
-        <v>9.169805478606012</v>
+        <v>9.162566720274194</v>
       </c>
       <c r="N9" t="n">
-        <v>135.6687468178767</v>
+        <v>135.2975158426869</v>
       </c>
       <c r="O9" t="n">
-        <v>11.64769276800675</v>
+        <v>11.63174603585751</v>
       </c>
       <c r="P9" t="n">
-        <v>349.0665234815366</v>
+        <v>349.1258233736694</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25340,28 +25425,28 @@
         <v>0.1124</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1146799263482333</v>
+        <v>0.1111004337370747</v>
       </c>
       <c r="J10" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K10" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005335504967125315</v>
+        <v>0.005050354133507406</v>
       </c>
       <c r="M10" t="n">
-        <v>8.596927614150543</v>
+        <v>8.580665956508952</v>
       </c>
       <c r="N10" t="n">
-        <v>119.6162808695441</v>
+        <v>119.1909602688264</v>
       </c>
       <c r="O10" t="n">
-        <v>10.93692282452172</v>
+        <v>10.9174612556595</v>
       </c>
       <c r="P10" t="n">
-        <v>355.8524553111458</v>
+        <v>355.8916550274762</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25421,7 +25506,7 @@
         <v>0.3669613088960878</v>
       </c>
       <c r="J11" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" t="n">
         <v>228</v>
@@ -25496,28 +25581,28 @@
         <v>0.1412</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1473404321127764</v>
+        <v>0.1410356975369175</v>
       </c>
       <c r="J12" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K12" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009419021972343566</v>
+        <v>0.008691012299274603</v>
       </c>
       <c r="M12" t="n">
-        <v>8.346432851139694</v>
+        <v>8.342691919823556</v>
       </c>
       <c r="N12" t="n">
-        <v>111.0852533711472</v>
+        <v>110.8754292862233</v>
       </c>
       <c r="O12" t="n">
-        <v>10.53969892222483</v>
+        <v>10.52974022881017</v>
       </c>
       <c r="P12" t="n">
-        <v>363.550574937661</v>
+        <v>363.6198450746705</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25574,28 +25659,28 @@
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2132201831347503</v>
+        <v>0.2048160629957489</v>
       </c>
       <c r="J13" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K13" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01641424679736758</v>
+        <v>0.01524164845622822</v>
       </c>
       <c r="M13" t="n">
-        <v>9.484541917507681</v>
+        <v>9.487207818102842</v>
       </c>
       <c r="N13" t="n">
-        <v>135.7443688018615</v>
+        <v>135.6317047855561</v>
       </c>
       <c r="O13" t="n">
-        <v>11.65093853738236</v>
+        <v>11.64610255774678</v>
       </c>
       <c r="P13" t="n">
-        <v>364.4824488297617</v>
+        <v>364.5735853364955</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25652,28 +25737,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2411100117643014</v>
+        <v>0.2333813217261156</v>
       </c>
       <c r="J14" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K14" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01967166233126094</v>
+        <v>0.01855905351305365</v>
       </c>
       <c r="M14" t="n">
-        <v>9.384891801323521</v>
+        <v>9.391437053784676</v>
       </c>
       <c r="N14" t="n">
-        <v>142.3532594815508</v>
+        <v>142.1466753171638</v>
       </c>
       <c r="O14" t="n">
-        <v>11.93118851923608</v>
+        <v>11.92252805897993</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9232112531845</v>
+        <v>362.0075881819655</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25730,28 +25815,28 @@
         <v>0.0848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.169644416423659</v>
+        <v>0.165697531190533</v>
       </c>
       <c r="J15" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K15" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009902036722672092</v>
+        <v>0.009521794905537506</v>
       </c>
       <c r="M15" t="n">
-        <v>9.261460081303508</v>
+        <v>9.243122518125235</v>
       </c>
       <c r="N15" t="n">
-        <v>141.678459356581</v>
+        <v>141.2207046480363</v>
       </c>
       <c r="O15" t="n">
-        <v>11.90287609599382</v>
+        <v>11.88363179537452</v>
       </c>
       <c r="P15" t="n">
-        <v>364.7296458927332</v>
+        <v>364.772672681848</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25808,28 +25893,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.271512285329539</v>
+        <v>0.2712194167531158</v>
       </c>
       <c r="J16" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K16" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02665825904207664</v>
+        <v>0.02681315359116487</v>
       </c>
       <c r="M16" t="n">
-        <v>9.483659489853959</v>
+        <v>9.448180291716488</v>
       </c>
       <c r="N16" t="n">
-        <v>133.2585443391654</v>
+        <v>132.7405519621526</v>
       </c>
       <c r="O16" t="n">
-        <v>11.54376647109449</v>
+        <v>11.52130860458796</v>
       </c>
       <c r="P16" t="n">
-        <v>369.0749925154867</v>
+        <v>369.078181410527</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25886,28 +25971,28 @@
         <v>0.068</v>
       </c>
       <c r="I17" t="n">
-        <v>0.402762921968283</v>
+        <v>0.4025247982925923</v>
       </c>
       <c r="J17" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K17" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0626405577764737</v>
+        <v>0.06305858376443874</v>
       </c>
       <c r="M17" t="n">
-        <v>8.896254459346828</v>
+        <v>8.862214439042278</v>
       </c>
       <c r="N17" t="n">
-        <v>121.6936844115644</v>
+        <v>121.2130249614585</v>
       </c>
       <c r="O17" t="n">
-        <v>11.03148604729047</v>
+        <v>11.00967869474212</v>
       </c>
       <c r="P17" t="n">
-        <v>370.8350154415807</v>
+        <v>370.8375826461547</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25964,28 +26049,28 @@
         <v>0.0901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3511912903017271</v>
+        <v>0.3581747487208752</v>
       </c>
       <c r="J18" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K18" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04564012099910586</v>
+        <v>0.04766679673115992</v>
       </c>
       <c r="M18" t="n">
-        <v>9.099116200229279</v>
+        <v>9.096387521157443</v>
       </c>
       <c r="N18" t="n">
-        <v>127.8820971125994</v>
+        <v>127.6651870710443</v>
       </c>
       <c r="O18" t="n">
-        <v>11.30849667783474</v>
+        <v>11.29890202944712</v>
       </c>
       <c r="P18" t="n">
-        <v>362.3447245042103</v>
+        <v>362.2692937500806</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26042,28 +26127,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3310080501274852</v>
+        <v>0.3348777169563262</v>
       </c>
       <c r="J19" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04420784856326276</v>
+        <v>0.04552974833111634</v>
       </c>
       <c r="M19" t="n">
-        <v>8.634861906766902</v>
+        <v>8.619272868051267</v>
       </c>
       <c r="N19" t="n">
-        <v>118.5035411840206</v>
+        <v>118.1247611441291</v>
       </c>
       <c r="O19" t="n">
-        <v>10.88593317929247</v>
+        <v>10.86852157122251</v>
       </c>
       <c r="P19" t="n">
-        <v>358.9521793229084</v>
+        <v>358.9104967129392</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26123,7 +26208,7 @@
         <v>0.3380669339378853</v>
       </c>
       <c r="J20" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
         <v>248</v>
@@ -26201,7 +26286,7 @@
         <v>0.224287898831008</v>
       </c>
       <c r="J21" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K21" t="n">
         <v>247</v>
@@ -26276,28 +26361,28 @@
         <v>0.065</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1309922222137577</v>
+        <v>0.1354939020092809</v>
       </c>
       <c r="J22" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K22" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007710863847150251</v>
+        <v>0.008306742399069367</v>
       </c>
       <c r="M22" t="n">
-        <v>8.475923720083694</v>
+        <v>8.461753007693394</v>
       </c>
       <c r="N22" t="n">
-        <v>110.2816589585287</v>
+        <v>109.9555242846711</v>
       </c>
       <c r="O22" t="n">
-        <v>10.50150746124235</v>
+        <v>10.48596797080132</v>
       </c>
       <c r="P22" t="n">
-        <v>383.4199090352923</v>
+        <v>383.3713777746067</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26354,28 +26439,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09799368755875314</v>
+        <v>0.1020595713041732</v>
       </c>
       <c r="J23" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K23" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004916430512222791</v>
+        <v>0.005370906521366958</v>
       </c>
       <c r="M23" t="n">
-        <v>7.986674602021436</v>
+        <v>7.972953589705011</v>
       </c>
       <c r="N23" t="n">
-        <v>96.52919386388533</v>
+        <v>96.23272431806281</v>
       </c>
       <c r="O23" t="n">
-        <v>9.824927168375618</v>
+        <v>9.809827945385322</v>
       </c>
       <c r="P23" t="n">
-        <v>376.5973512902337</v>
+        <v>376.5532850669086</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26432,28 +26517,28 @@
         <v>0.0539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06363560336404647</v>
+        <v>0.07237103859738206</v>
       </c>
       <c r="J24" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K24" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001294164062599745</v>
+        <v>0.001682776603492253</v>
       </c>
       <c r="M24" t="n">
-        <v>9.845494371478603</v>
+        <v>9.847072325999632</v>
       </c>
       <c r="N24" t="n">
-        <v>153.109073640977</v>
+        <v>152.9358146581743</v>
       </c>
       <c r="O24" t="n">
-        <v>12.37372513194701</v>
+        <v>12.36672206601953</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6738024793422</v>
+        <v>383.5787190628423</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26491,7 +26576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y280"/>
+  <dimension ref="A1:Y281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59063,6 +59148,121 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>-36.2603005475861,175.48995633380358</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>-36.2610560621812,175.49003360128856</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>-36.261718691932465,175.49039738750244</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>-36.26239597332286,175.49071595717982</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>-36.263047737064504,175.49111572513092</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>-36.26359764074606,175.49166800695696</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>-36.26418873707231,175.49218035081233</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>-36.26480976996966,175.4926743217271</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>-36.26529950413865,175.4933387658089</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>-36.26633457365592,175.49459723358896</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>-36.26678183273151,175.495296920627</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>-36.267176042231995,175.4960518218384</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>-36.26751964984363,175.49684377106456</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>-36.2678144755256,175.49766436957086</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>-36.2680926421471,175.4984500123816</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>-36.268275072150196,175.49929332750304</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>-36.26852213597077,175.50014372468604</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>-36.268818738282356,175.50274379910024</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>-36.268848366931515,175.5036077251394</t>
+        </is>
+      </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>-36.2686959666705,175.50449360006547</t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y281"/>
+  <dimension ref="A1:Y282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21739,6 +21739,85 @@
         </is>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>357.7451851851852</v>
+      </c>
+      <c r="C282" t="n">
+        <v>348.8133333333333</v>
+      </c>
+      <c r="D282" t="n">
+        <v>337.98</v>
+      </c>
+      <c r="E282" t="n">
+        <v>358.3377777777778</v>
+      </c>
+      <c r="F282" t="n">
+        <v>364.57</v>
+      </c>
+      <c r="G282" t="n">
+        <v>358.5678947368421</v>
+      </c>
+      <c r="H282" t="n">
+        <v>357.7078947368421</v>
+      </c>
+      <c r="I282" t="n">
+        <v>340.805</v>
+      </c>
+      <c r="J282" t="n">
+        <v>349.1378947368421</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>356.5795238095238</v>
+      </c>
+      <c r="M282" t="n">
+        <v>355.5842857142857</v>
+      </c>
+      <c r="N282" t="n">
+        <v>352.0942857142857</v>
+      </c>
+      <c r="O282" t="n">
+        <v>359.7333333333333</v>
+      </c>
+      <c r="P282" t="n">
+        <v>367.7642857142857</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>370.1666666666667</v>
+      </c>
+      <c r="R282" t="n">
+        <v>364.2233333333333</v>
+      </c>
+      <c r="S282" t="n">
+        <v>359.8042857142857</v>
+      </c>
+      <c r="T282" t="n">
+        <v>364.9642857142857</v>
+      </c>
+      <c r="U282" t="n">
+        <v>367.55</v>
+      </c>
+      <c r="V282" t="n">
+        <v>374.6266666666667</v>
+      </c>
+      <c r="W282" t="n">
+        <v>370.0342857142857</v>
+      </c>
+      <c r="X282" t="n">
+        <v>370.34</v>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21750,7 +21829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24628,6 +24707,16 @@
       </c>
       <c r="B287" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -24801,28 +24890,28 @@
         <v>0.1875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.231304026420009</v>
+        <v>0.2302344712975933</v>
       </c>
       <c r="J2" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02562051352314354</v>
+        <v>0.02561729686900527</v>
       </c>
       <c r="M2" t="n">
-        <v>7.567401621654466</v>
+        <v>7.540993465947272</v>
       </c>
       <c r="N2" t="n">
-        <v>99.43221340659241</v>
+        <v>99.0205083168949</v>
       </c>
       <c r="O2" t="n">
-        <v>9.971570257817593</v>
+        <v>9.950904899399598</v>
       </c>
       <c r="P2" t="n">
-        <v>352.9220893733967</v>
+        <v>352.9338591359831</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24879,28 +24968,28 @@
         <v>0.1671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2677295995985821</v>
+        <v>0.2669335986873489</v>
       </c>
       <c r="J3" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03237989141380915</v>
+        <v>0.03248081860223095</v>
       </c>
       <c r="M3" t="n">
-        <v>8.327279973851542</v>
+        <v>8.296737983612065</v>
       </c>
       <c r="N3" t="n">
-        <v>103.4725279506435</v>
+        <v>103.0465083411293</v>
       </c>
       <c r="O3" t="n">
-        <v>10.17214470751589</v>
+        <v>10.15118260800826</v>
       </c>
       <c r="P3" t="n">
-        <v>342.7307105074794</v>
+        <v>342.7395103982588</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24957,28 +25046,28 @@
         <v>0.1265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287616495235646</v>
+        <v>0.2181837174928904</v>
       </c>
       <c r="J4" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K4" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01939412779772742</v>
+        <v>0.01774886036180046</v>
       </c>
       <c r="M4" t="n">
-        <v>9.153644476587038</v>
+        <v>9.166346596357609</v>
       </c>
       <c r="N4" t="n">
-        <v>127.5529847510227</v>
+        <v>127.6224122318903</v>
       </c>
       <c r="O4" t="n">
-        <v>11.2939357511464</v>
+        <v>11.29700899494598</v>
       </c>
       <c r="P4" t="n">
-        <v>344.1067063604246</v>
+        <v>344.2242089175768</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25035,28 +25124,28 @@
         <v>0.1118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1552839428517646</v>
+        <v>0.156760291964376</v>
       </c>
       <c r="J5" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K5" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008783278046237242</v>
+        <v>0.009028341396654427</v>
       </c>
       <c r="M5" t="n">
-        <v>9.180513877494391</v>
+        <v>9.149342950367087</v>
       </c>
       <c r="N5" t="n">
-        <v>132.1434857253406</v>
+        <v>131.6092927596674</v>
       </c>
       <c r="O5" t="n">
-        <v>11.49536801174023</v>
+        <v>11.47210934221198</v>
       </c>
       <c r="P5" t="n">
-        <v>352.582146827658</v>
+        <v>352.5657754611601</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25113,28 +25202,28 @@
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1973129202719858</v>
+        <v>0.1951827088825396</v>
       </c>
       <c r="J6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K6" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0133447382691404</v>
+        <v>0.01317401802670481</v>
       </c>
       <c r="M6" t="n">
-        <v>9.454511002767148</v>
+        <v>9.425059832298395</v>
       </c>
       <c r="N6" t="n">
-        <v>141.7547232933863</v>
+        <v>141.1942459420762</v>
       </c>
       <c r="O6" t="n">
-        <v>11.90607925781558</v>
+        <v>11.88251850165091</v>
       </c>
       <c r="P6" t="n">
-        <v>361.9126575372795</v>
+        <v>361.9361156742208</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25191,28 +25280,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1741897480983512</v>
+        <v>0.1653593686199616</v>
       </c>
       <c r="J7" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01082740306616981</v>
+        <v>0.00982356941057394</v>
       </c>
       <c r="M7" t="n">
-        <v>9.480026520024433</v>
+        <v>9.486038869544469</v>
       </c>
       <c r="N7" t="n">
-        <v>136.2722079460713</v>
+        <v>136.1533245147957</v>
       </c>
       <c r="O7" t="n">
-        <v>11.67356877506066</v>
+        <v>11.66847567228881</v>
       </c>
       <c r="P7" t="n">
-        <v>364.424930292007</v>
+        <v>364.5214956367737</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25269,28 +25358,28 @@
         <v>0.1174</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2017549825192763</v>
+        <v>0.2007853042767311</v>
       </c>
       <c r="J8" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K8" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01647988436530134</v>
+        <v>0.01646476691678989</v>
       </c>
       <c r="M8" t="n">
-        <v>8.817386492563827</v>
+        <v>8.78692477161179</v>
       </c>
       <c r="N8" t="n">
-        <v>120.4446268047666</v>
+        <v>119.9681800090328</v>
       </c>
       <c r="O8" t="n">
-        <v>10.97472673030024</v>
+        <v>10.95299867657405</v>
       </c>
       <c r="P8" t="n">
-        <v>353.6067768175241</v>
+        <v>353.6173460662777</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25347,28 +25436,28 @@
         <v>0.0988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1961683365831373</v>
+        <v>0.1850563299342291</v>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01374177386889963</v>
+        <v>0.01228771650898086</v>
       </c>
       <c r="M9" t="n">
-        <v>9.162566720274194</v>
+        <v>9.186305710090499</v>
       </c>
       <c r="N9" t="n">
-        <v>135.2975158426869</v>
+        <v>135.4683000441969</v>
       </c>
       <c r="O9" t="n">
-        <v>11.63174603585751</v>
+        <v>11.63908501748299</v>
       </c>
       <c r="P9" t="n">
-        <v>349.1258233736694</v>
+        <v>349.2484171502352</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25425,28 +25514,28 @@
         <v>0.1124</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1111004337370747</v>
+        <v>0.1027869660506174</v>
       </c>
       <c r="J10" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K10" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005050354133507406</v>
+        <v>0.004350678215236492</v>
       </c>
       <c r="M10" t="n">
-        <v>8.580665956508952</v>
+        <v>8.589506856770408</v>
       </c>
       <c r="N10" t="n">
-        <v>119.1909602688264</v>
+        <v>119.0784005368464</v>
       </c>
       <c r="O10" t="n">
-        <v>10.9174612556595</v>
+        <v>10.91230500567348</v>
       </c>
       <c r="P10" t="n">
-        <v>355.8916550274762</v>
+        <v>355.9832942421542</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25506,7 +25595,7 @@
         <v>0.3669613088960878</v>
       </c>
       <c r="J11" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K11" t="n">
         <v>228</v>
@@ -25581,28 +25670,28 @@
         <v>0.1412</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1410356975369175</v>
+        <v>0.1322092591400572</v>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008691012299274603</v>
+        <v>0.00767902379996277</v>
       </c>
       <c r="M12" t="n">
-        <v>8.342691919823556</v>
+        <v>8.350116887239569</v>
       </c>
       <c r="N12" t="n">
-        <v>110.8754292862233</v>
+        <v>110.8857399651498</v>
       </c>
       <c r="O12" t="n">
-        <v>10.52974022881017</v>
+        <v>10.53022981540051</v>
       </c>
       <c r="P12" t="n">
-        <v>363.6198450746705</v>
+        <v>363.7174580246652</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25659,28 +25748,28 @@
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2048160629957489</v>
+        <v>0.1932314165555488</v>
       </c>
       <c r="J13" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01524164845622822</v>
+        <v>0.01362198708169537</v>
       </c>
       <c r="M13" t="n">
-        <v>9.487207818102842</v>
+        <v>9.505394029055504</v>
       </c>
       <c r="N13" t="n">
-        <v>135.6317047855561</v>
+        <v>135.8975592387756</v>
       </c>
       <c r="O13" t="n">
-        <v>11.64610255774678</v>
+        <v>11.65751085089676</v>
       </c>
       <c r="P13" t="n">
-        <v>364.5735853364955</v>
+        <v>364.7000595181615</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25737,28 +25826,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2333813217261156</v>
+        <v>0.2203820688389444</v>
       </c>
       <c r="J14" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K14" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01855905351305365</v>
+        <v>0.01660584242009078</v>
       </c>
       <c r="M14" t="n">
-        <v>9.391437053784676</v>
+        <v>9.426502568889063</v>
       </c>
       <c r="N14" t="n">
-        <v>142.1466753171638</v>
+        <v>142.5810132008701</v>
       </c>
       <c r="O14" t="n">
-        <v>11.92252805897993</v>
+        <v>11.94072917375108</v>
       </c>
       <c r="P14" t="n">
-        <v>362.0075881819655</v>
+        <v>362.1504450962149</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25815,28 +25904,28 @@
         <v>0.0848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.165697531190533</v>
+        <v>0.1581854830250526</v>
       </c>
       <c r="J15" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K15" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009521794905537506</v>
+        <v>0.00873658055118065</v>
       </c>
       <c r="M15" t="n">
-        <v>9.243122518125235</v>
+        <v>9.241861995177521</v>
       </c>
       <c r="N15" t="n">
-        <v>141.2207046480363</v>
+        <v>141.0089183622551</v>
       </c>
       <c r="O15" t="n">
-        <v>11.88363179537452</v>
+        <v>11.87471761189524</v>
       </c>
       <c r="P15" t="n">
-        <v>364.772672681848</v>
+        <v>364.8551074948936</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25893,28 +25982,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2712194167531158</v>
+        <v>0.2645411747262552</v>
       </c>
       <c r="J16" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K16" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02681315359116487</v>
+        <v>0.02569690114011525</v>
       </c>
       <c r="M16" t="n">
-        <v>9.448180291716488</v>
+        <v>9.443365154707523</v>
       </c>
       <c r="N16" t="n">
-        <v>132.7405519621526</v>
+        <v>132.4955413993451</v>
       </c>
       <c r="O16" t="n">
-        <v>11.52130860458796</v>
+        <v>11.51067076235547</v>
       </c>
       <c r="P16" t="n">
-        <v>369.078181410527</v>
+        <v>369.1513848414501</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25971,28 +26060,28 @@
         <v>0.068</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4025247982925923</v>
+        <v>0.3935302574893448</v>
       </c>
       <c r="J17" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K17" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06305858376443874</v>
+        <v>0.06068980889350684</v>
       </c>
       <c r="M17" t="n">
-        <v>8.862214439042278</v>
+        <v>8.868954202702993</v>
       </c>
       <c r="N17" t="n">
-        <v>121.2130249614585</v>
+        <v>121.2211107479975</v>
       </c>
       <c r="O17" t="n">
-        <v>11.00967869474212</v>
+        <v>11.0100459012666</v>
       </c>
       <c r="P17" t="n">
-        <v>370.8375826461547</v>
+        <v>370.9352061604663</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26049,28 +26138,28 @@
         <v>0.0901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3581747487208752</v>
+        <v>0.3521496528996241</v>
       </c>
       <c r="J18" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K18" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04766679673115992</v>
+        <v>0.04645432339573874</v>
       </c>
       <c r="M18" t="n">
-        <v>9.096387521157443</v>
+        <v>9.089934516410386</v>
       </c>
       <c r="N18" t="n">
-        <v>127.6651870710443</v>
+        <v>127.3760129680298</v>
       </c>
       <c r="O18" t="n">
-        <v>11.29890202944712</v>
+        <v>11.28609821718869</v>
       </c>
       <c r="P18" t="n">
-        <v>362.2692937500806</v>
+        <v>362.3348009080369</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26127,28 +26216,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3348777169563262</v>
+        <v>0.3285285424840848</v>
       </c>
       <c r="J19" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K19" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04552974833111634</v>
+        <v>0.0441659108992245</v>
       </c>
       <c r="M19" t="n">
-        <v>8.619272868051267</v>
+        <v>8.616479933253922</v>
       </c>
       <c r="N19" t="n">
-        <v>118.1247611441291</v>
+        <v>117.8988237501568</v>
       </c>
       <c r="O19" t="n">
-        <v>10.86852157122251</v>
+        <v>10.8581224781339</v>
       </c>
       <c r="P19" t="n">
-        <v>358.9104967129392</v>
+        <v>358.97934477892</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26205,28 +26294,28 @@
         <v>0.0765</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3380669339378853</v>
+        <v>0.3311431945508836</v>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K20" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04682942559869363</v>
+        <v>0.04528937041829195</v>
       </c>
       <c r="M20" t="n">
-        <v>8.801003170819351</v>
+        <v>8.800598577676629</v>
       </c>
       <c r="N20" t="n">
-        <v>114.8333460835235</v>
+        <v>114.6440534275673</v>
       </c>
       <c r="O20" t="n">
-        <v>10.71603219869759</v>
+        <v>10.70719633833093</v>
       </c>
       <c r="P20" t="n">
-        <v>364.4258999111349</v>
+        <v>364.5017654450518</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26283,28 +26372,28 @@
         <v>0.0572</v>
       </c>
       <c r="I21" t="n">
-        <v>0.224287898831008</v>
+        <v>0.2113229743174947</v>
       </c>
       <c r="J21" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K21" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01846593180725986</v>
+        <v>0.01645064670635399</v>
       </c>
       <c r="M21" t="n">
-        <v>9.13816736412368</v>
+        <v>9.158877668263328</v>
       </c>
       <c r="N21" t="n">
-        <v>132.3990511687008</v>
+        <v>132.8219765273081</v>
       </c>
       <c r="O21" t="n">
-        <v>11.50647866068072</v>
+        <v>11.52484171376371</v>
       </c>
       <c r="P21" t="n">
-        <v>377.2016663340709</v>
+        <v>377.343594077725</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26361,28 +26450,28 @@
         <v>0.065</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1354939020092809</v>
+        <v>0.1253414051030868</v>
       </c>
       <c r="J22" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K22" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008306742399069367</v>
+        <v>0.007139758799390661</v>
       </c>
       <c r="M22" t="n">
-        <v>8.461753007693394</v>
+        <v>8.48093321007519</v>
       </c>
       <c r="N22" t="n">
-        <v>109.9555242846711</v>
+        <v>110.1118498299612</v>
       </c>
       <c r="O22" t="n">
-        <v>10.48596797080132</v>
+        <v>10.49341935833888</v>
       </c>
       <c r="P22" t="n">
-        <v>383.3713777746067</v>
+        <v>383.4815590362349</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26439,28 +26528,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1020595713041732</v>
+        <v>0.09440661135347427</v>
       </c>
       <c r="J23" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K23" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005370906521366958</v>
+        <v>0.004622895144480998</v>
       </c>
       <c r="M23" t="n">
-        <v>7.972953589705011</v>
+        <v>7.979506157866259</v>
       </c>
       <c r="N23" t="n">
-        <v>96.23272431806281</v>
+        <v>96.18008520636586</v>
       </c>
       <c r="O23" t="n">
-        <v>9.809827945385322</v>
+        <v>9.807144600053874</v>
       </c>
       <c r="P23" t="n">
-        <v>376.5532850669086</v>
+        <v>376.6367816886582</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26517,28 +26606,28 @@
         <v>0.0539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07237103859738206</v>
+        <v>0.05980175615704801</v>
       </c>
       <c r="J24" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K24" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001682776603492253</v>
+        <v>0.001152854562869954</v>
       </c>
       <c r="M24" t="n">
-        <v>9.847072325999632</v>
+        <v>9.868994993117884</v>
       </c>
       <c r="N24" t="n">
-        <v>152.9358146581743</v>
+        <v>153.2255037593217</v>
       </c>
       <c r="O24" t="n">
-        <v>12.36672206601953</v>
+        <v>12.3784289697571</v>
       </c>
       <c r="P24" t="n">
-        <v>383.5787190628423</v>
+        <v>383.7164238525866</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26576,7 +26665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y281"/>
+  <dimension ref="A1:Y282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59263,6 +59352,129 @@
         </is>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>-36.260348186819755,175.48980937377834</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>-36.26105483452353,175.49003738845897</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>-36.26176784313167,175.49024576179065</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>-36.26237641237739,175.49077630029495</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>-36.263030245945934,175.49115940742544</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>-36.26367488732642,175.49154269970575</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>-36.264215093418095,175.4921461298192</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>-36.26485279973119,175.4926184519203</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>-36.26533380850415,175.49329422521254</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>-36.2663554549723,175.49457407235073</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>-36.2668116118746,175.4952717969421</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>-36.267226402278844,175.49601398006038</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>-36.26755400400193,175.49681795672228</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>-36.26787742452171,175.49762140253972</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>-36.268184261642276,175.49840898420072</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>-36.268413666264344,175.4992525307146</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>-36.26863189119201,175.50011141769647</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>-36.26876616118027,175.50099501708024</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>-36.268922695807404,175.50186888214887</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>-36.26897764194442,175.5027371396125</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>-36.2689740313881,175.50362027221053</t>
+        </is>
+      </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>-36.26892515174614,175.50451648489474</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y282"/>
+  <dimension ref="A1:Y284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21818,6 +21818,166 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="n">
+        <v>340.84</v>
+      </c>
+      <c r="D283" t="n">
+        <v>332.34</v>
+      </c>
+      <c r="E283" t="n">
+        <v>338.17</v>
+      </c>
+      <c r="F283" t="n">
+        <v>350.01</v>
+      </c>
+      <c r="G283" t="n">
+        <v>354.461052631579</v>
+      </c>
+      <c r="H283" t="n">
+        <v>343.9410526315789</v>
+      </c>
+      <c r="I283" t="n">
+        <v>338.135</v>
+      </c>
+      <c r="J283" t="n">
+        <v>336.9410526315789</v>
+      </c>
+      <c r="K283" t="n">
+        <v>399.18</v>
+      </c>
+      <c r="L283" t="n">
+        <v>345.9885714285714</v>
+      </c>
+      <c r="M283" t="n">
+        <v>350.7728571428572</v>
+      </c>
+      <c r="N283" t="n">
+        <v>345.7228571428572</v>
+      </c>
+      <c r="O283" t="n">
+        <v>348.39</v>
+      </c>
+      <c r="P283" t="n">
+        <v>349.2428571428572</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>361.35</v>
+      </c>
+      <c r="R283" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="S283" t="n">
+        <v>348.9828571428571</v>
+      </c>
+      <c r="T283" t="n">
+        <v>352.6628571428571</v>
+      </c>
+      <c r="U283" t="n">
+        <v>367.29</v>
+      </c>
+      <c r="V283" t="n">
+        <v>366.13</v>
+      </c>
+      <c r="W283" t="n">
+        <v>351.1528571428572</v>
+      </c>
+      <c r="X283" t="n">
+        <v>358.35</v>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>362.8144444444445</v>
+      </c>
+      <c r="C284" t="n">
+        <v>341.85</v>
+      </c>
+      <c r="D284" t="n">
+        <v>342.38</v>
+      </c>
+      <c r="E284" t="n">
+        <v>356.7666666666667</v>
+      </c>
+      <c r="F284" t="n">
+        <v>365.47</v>
+      </c>
+      <c r="G284" t="n">
+        <v>369.1657894736842</v>
+      </c>
+      <c r="H284" t="n">
+        <v>354.6257894736842</v>
+      </c>
+      <c r="I284" t="n">
+        <v>344.31</v>
+      </c>
+      <c r="J284" t="n">
+        <v>351.1957894736842</v>
+      </c>
+      <c r="K284" t="n">
+        <v>418.49</v>
+      </c>
+      <c r="L284" t="n">
+        <v>348.6642857142857</v>
+      </c>
+      <c r="M284" t="n">
+        <v>357.5614285714286</v>
+      </c>
+      <c r="N284" t="n">
+        <v>361.2814285714285</v>
+      </c>
+      <c r="O284" t="n">
+        <v>356.21</v>
+      </c>
+      <c r="P284" t="n">
+        <v>368.3514285714285</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>374.14</v>
+      </c>
+      <c r="R284" t="n">
+        <v>369.36</v>
+      </c>
+      <c r="S284" t="n">
+        <v>367.0714285714286</v>
+      </c>
+      <c r="T284" t="n">
+        <v>371.1714285714286</v>
+      </c>
+      <c r="U284" t="n">
+        <v>382.86</v>
+      </c>
+      <c r="V284" t="n">
+        <v>378.08</v>
+      </c>
+      <c r="W284" t="n">
+        <v>369.4814285714286</v>
+      </c>
+      <c r="X284" t="n">
+        <v>381.03</v>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21829,7 +21989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24717,6 +24877,26 @@
       </c>
       <c r="B288" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -24890,28 +25070,28 @@
         <v>0.1875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2302344712975933</v>
+        <v>0.2336251923063156</v>
       </c>
       <c r="J2" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02561729686900527</v>
+        <v>0.02657932315827805</v>
       </c>
       <c r="M2" t="n">
-        <v>7.540993465947272</v>
+        <v>7.524394190740852</v>
       </c>
       <c r="N2" t="n">
-        <v>99.0205083168949</v>
+        <v>98.66736977524971</v>
       </c>
       <c r="O2" t="n">
-        <v>9.950904899399598</v>
+        <v>9.933145009273233</v>
       </c>
       <c r="P2" t="n">
-        <v>352.9338591359831</v>
+        <v>352.8963771870613</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24968,28 +25148,28 @@
         <v>0.1671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2669335986873489</v>
+        <v>0.2523985476336837</v>
       </c>
       <c r="J3" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K3" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03248081860223095</v>
+        <v>0.02950224995724737</v>
       </c>
       <c r="M3" t="n">
-        <v>8.296737983612065</v>
+        <v>8.300481412780933</v>
       </c>
       <c r="N3" t="n">
-        <v>103.0465083411293</v>
+        <v>102.7634641725028</v>
       </c>
       <c r="O3" t="n">
-        <v>10.15118260800826</v>
+        <v>10.13723158325303</v>
       </c>
       <c r="P3" t="n">
-        <v>342.7395103982588</v>
+        <v>342.9007627939909</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25046,28 +25226,28 @@
         <v>0.1265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2181837174928904</v>
+        <v>0.1965903658113782</v>
       </c>
       <c r="J4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K4" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01774886036180046</v>
+        <v>0.01454922238582468</v>
       </c>
       <c r="M4" t="n">
-        <v>9.166346596357609</v>
+        <v>9.193500771247622</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6224122318903</v>
+        <v>128.0451982435025</v>
       </c>
       <c r="O4" t="n">
-        <v>11.29700899494598</v>
+        <v>11.31570582171092</v>
       </c>
       <c r="P4" t="n">
-        <v>344.2242089175768</v>
+        <v>344.4648502955817</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25124,28 +25304,28 @@
         <v>0.1118</v>
       </c>
       <c r="I5" t="n">
-        <v>0.156760291964376</v>
+        <v>0.141134566435311</v>
       </c>
       <c r="J5" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K5" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009028341396654427</v>
+        <v>0.007382995383761637</v>
       </c>
       <c r="M5" t="n">
-        <v>9.149342950367087</v>
+        <v>9.153487342593955</v>
       </c>
       <c r="N5" t="n">
-        <v>131.6092927596674</v>
+        <v>131.9148112337021</v>
       </c>
       <c r="O5" t="n">
-        <v>11.47210934221198</v>
+        <v>11.48541732954019</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5657754611601</v>
+        <v>352.7395208006202</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25202,28 +25382,28 @@
         <v>0.13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1951827088825396</v>
+        <v>0.179560848295258</v>
       </c>
       <c r="J6" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01317401802670481</v>
+        <v>0.01127354981312478</v>
       </c>
       <c r="M6" t="n">
-        <v>9.425059832298395</v>
+        <v>9.418123364408627</v>
       </c>
       <c r="N6" t="n">
-        <v>141.1942459420762</v>
+        <v>141.2178141666217</v>
       </c>
       <c r="O6" t="n">
-        <v>11.88251850165091</v>
+        <v>11.88351017867287</v>
       </c>
       <c r="P6" t="n">
-        <v>361.9361156742208</v>
+        <v>362.1086498613661</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25280,28 +25460,28 @@
         <v>0.1152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1653593686199616</v>
+        <v>0.153642813430731</v>
       </c>
       <c r="J7" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K7" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00982356941057394</v>
+        <v>0.008590599819086164</v>
       </c>
       <c r="M7" t="n">
-        <v>9.486038869544469</v>
+        <v>9.472718959752893</v>
       </c>
       <c r="N7" t="n">
-        <v>136.1533245147957</v>
+        <v>135.882176024368</v>
       </c>
       <c r="O7" t="n">
-        <v>11.66847567228881</v>
+        <v>11.65685103380703</v>
       </c>
       <c r="P7" t="n">
-        <v>364.5214956367737</v>
+        <v>364.6499640462287</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25358,28 +25538,28 @@
         <v>0.1174</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2007853042767311</v>
+        <v>0.1850668599159116</v>
       </c>
       <c r="J8" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K8" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01646476691678989</v>
+        <v>0.01415450728990764</v>
       </c>
       <c r="M8" t="n">
-        <v>8.78692477161179</v>
+        <v>8.793962887569954</v>
       </c>
       <c r="N8" t="n">
-        <v>119.9681800090328</v>
+        <v>119.9537693210222</v>
       </c>
       <c r="O8" t="n">
-        <v>10.95299867657405</v>
+        <v>10.95234081468534</v>
       </c>
       <c r="P8" t="n">
-        <v>353.6173460662777</v>
+        <v>353.7892136555047</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25436,28 +25616,28 @@
         <v>0.0988</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1850563299342291</v>
+        <v>0.1641288501991702</v>
       </c>
       <c r="J9" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K9" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01228771650898086</v>
+        <v>0.009758495110872345</v>
       </c>
       <c r="M9" t="n">
-        <v>9.186305710090499</v>
+        <v>9.227436721131273</v>
       </c>
       <c r="N9" t="n">
-        <v>135.4683000441969</v>
+        <v>135.748603218427</v>
       </c>
       <c r="O9" t="n">
-        <v>11.63908501748299</v>
+        <v>11.65112025594222</v>
       </c>
       <c r="P9" t="n">
-        <v>349.2484171502352</v>
+        <v>349.4800995484558</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25514,28 +25694,28 @@
         <v>0.1124</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1027869660506174</v>
+        <v>0.07808740804363008</v>
       </c>
       <c r="J10" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K10" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004350678215236492</v>
+        <v>0.00251533508684576</v>
       </c>
       <c r="M10" t="n">
-        <v>8.589506856770408</v>
+        <v>8.648726591852265</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0784005368464</v>
+        <v>120.2222694381802</v>
       </c>
       <c r="O10" t="n">
-        <v>10.91230500567348</v>
+        <v>10.96459162204321</v>
       </c>
       <c r="P10" t="n">
-        <v>355.9832942421542</v>
+        <v>356.2564352068847</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25592,28 +25772,28 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3669613088960878</v>
+        <v>0.3621877925543893</v>
       </c>
       <c r="J11" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K11" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02318401337016984</v>
+        <v>0.02295136432612066</v>
       </c>
       <c r="M11" t="n">
-        <v>12.89331811331219</v>
+        <v>12.86682862480891</v>
       </c>
       <c r="N11" t="n">
-        <v>281.1536736499291</v>
+        <v>279.5785861558274</v>
       </c>
       <c r="O11" t="n">
-        <v>16.76763768841422</v>
+        <v>16.72060364208863</v>
       </c>
       <c r="P11" t="n">
-        <v>401.9037966674469</v>
+        <v>401.9560429619034</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25670,28 +25850,28 @@
         <v>0.1412</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1322092591400572</v>
+        <v>0.1000475146076632</v>
       </c>
       <c r="J12" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K12" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00767902379996277</v>
+        <v>0.004366817801914391</v>
       </c>
       <c r="M12" t="n">
-        <v>8.350116887239569</v>
+        <v>8.435229621023153</v>
       </c>
       <c r="N12" t="n">
-        <v>110.8857399651498</v>
+        <v>113.0453720658574</v>
       </c>
       <c r="O12" t="n">
-        <v>10.53022981540051</v>
+        <v>10.63227972101268</v>
       </c>
       <c r="P12" t="n">
-        <v>363.7174580246652</v>
+        <v>364.0744286705979</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25748,28 +25928,28 @@
         <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1932314165555488</v>
+        <v>0.1684398294374658</v>
       </c>
       <c r="J13" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K13" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01362198708169537</v>
+        <v>0.01040811769246663</v>
       </c>
       <c r="M13" t="n">
-        <v>9.505394029055504</v>
+        <v>9.554952784668593</v>
       </c>
       <c r="N13" t="n">
-        <v>135.8975592387756</v>
+        <v>136.7821047116183</v>
       </c>
       <c r="O13" t="n">
-        <v>11.65751085089676</v>
+        <v>11.69538818131396</v>
       </c>
       <c r="P13" t="n">
-        <v>364.7000595181615</v>
+        <v>364.9716870529699</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25826,28 +26006,28 @@
         <v>0.0824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2203820688389444</v>
+        <v>0.1973571599147833</v>
       </c>
       <c r="J14" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K14" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01660584242009078</v>
+        <v>0.01339181976304771</v>
       </c>
       <c r="M14" t="n">
-        <v>9.426502568889063</v>
+        <v>9.47866358780305</v>
       </c>
       <c r="N14" t="n">
-        <v>142.5810132008701</v>
+        <v>143.5201064519012</v>
       </c>
       <c r="O14" t="n">
-        <v>11.94072917375108</v>
+        <v>11.97998774840364</v>
       </c>
       <c r="P14" t="n">
-        <v>362.1504450962149</v>
+        <v>362.4042914537528</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25904,28 +26084,28 @@
         <v>0.0848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1581854830250526</v>
+        <v>0.131824013366025</v>
       </c>
       <c r="J15" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K15" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00873658055118065</v>
+        <v>0.006088676252199443</v>
       </c>
       <c r="M15" t="n">
-        <v>9.241861995177521</v>
+        <v>9.297171790900011</v>
       </c>
       <c r="N15" t="n">
-        <v>141.0089183622551</v>
+        <v>142.1344478148171</v>
       </c>
       <c r="O15" t="n">
-        <v>11.87471761189524</v>
+        <v>11.92201525811878</v>
       </c>
       <c r="P15" t="n">
-        <v>364.8551074948936</v>
+        <v>365.1454016721382</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25982,28 +26162,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2645411747262552</v>
+        <v>0.2374883745411736</v>
       </c>
       <c r="J16" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K16" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02569690114011525</v>
+        <v>0.02069601524909814</v>
       </c>
       <c r="M16" t="n">
-        <v>9.443365154707523</v>
+        <v>9.498673500660544</v>
       </c>
       <c r="N16" t="n">
-        <v>132.4955413993451</v>
+        <v>134.4196144505495</v>
       </c>
       <c r="O16" t="n">
-        <v>11.51067076235547</v>
+        <v>11.59394731963836</v>
       </c>
       <c r="P16" t="n">
-        <v>369.1513848414501</v>
+        <v>369.4488825403637</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26060,28 +26240,28 @@
         <v>0.068</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3935302574893448</v>
+        <v>0.3721745028641788</v>
       </c>
       <c r="J17" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K17" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06068980889350684</v>
+        <v>0.05476517252813073</v>
       </c>
       <c r="M17" t="n">
-        <v>8.868954202702993</v>
+        <v>8.899314866548352</v>
       </c>
       <c r="N17" t="n">
-        <v>121.2211107479975</v>
+        <v>121.9801386287187</v>
       </c>
       <c r="O17" t="n">
-        <v>11.0100459012666</v>
+        <v>11.04446189855888</v>
       </c>
       <c r="P17" t="n">
-        <v>370.9352061604663</v>
+        <v>371.167765371892</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26138,28 +26318,28 @@
         <v>0.0901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3521496528996241</v>
+        <v>0.3332012556887743</v>
       </c>
       <c r="J18" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K18" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04645432339573874</v>
+        <v>0.04191125428068698</v>
       </c>
       <c r="M18" t="n">
-        <v>9.089934516410386</v>
+        <v>9.110764716031259</v>
       </c>
       <c r="N18" t="n">
-        <v>127.3760129680298</v>
+        <v>128.1696296672739</v>
       </c>
       <c r="O18" t="n">
-        <v>11.28609821718869</v>
+        <v>11.32120265993299</v>
       </c>
       <c r="P18" t="n">
-        <v>362.3348009080369</v>
+        <v>362.5414184436035</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26216,28 +26396,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3285285424840848</v>
+        <v>0.3133423249655602</v>
       </c>
       <c r="J19" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K19" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0441659108992245</v>
+        <v>0.04055084163322153</v>
       </c>
       <c r="M19" t="n">
-        <v>8.616479933253922</v>
+        <v>8.62323826910001</v>
       </c>
       <c r="N19" t="n">
-        <v>117.8988237501568</v>
+        <v>118.3111428040629</v>
       </c>
       <c r="O19" t="n">
-        <v>10.8581224781339</v>
+        <v>10.87709257127395</v>
       </c>
       <c r="P19" t="n">
-        <v>358.97934477892</v>
+        <v>359.1444875884069</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26294,28 +26474,28 @@
         <v>0.0765</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3311431945508836</v>
+        <v>0.3126727929386974</v>
       </c>
       <c r="J20" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K20" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04528937041829195</v>
+        <v>0.04068402989956399</v>
       </c>
       <c r="M20" t="n">
-        <v>8.800598577676629</v>
+        <v>8.824406162999635</v>
       </c>
       <c r="N20" t="n">
-        <v>114.6440534275673</v>
+        <v>115.3955844384184</v>
       </c>
       <c r="O20" t="n">
-        <v>10.70719633833093</v>
+        <v>10.7422336801253</v>
       </c>
       <c r="P20" t="n">
-        <v>364.5017654450518</v>
+        <v>364.7047414422135</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26372,28 +26552,28 @@
         <v>0.0572</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2113229743174947</v>
+        <v>0.1985219444871161</v>
       </c>
       <c r="J21" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K21" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01645064670635399</v>
+        <v>0.01469030749248523</v>
       </c>
       <c r="M21" t="n">
-        <v>9.158877668263328</v>
+        <v>9.145052231267952</v>
       </c>
       <c r="N21" t="n">
-        <v>132.8219765273081</v>
+        <v>132.7182396680277</v>
       </c>
       <c r="O21" t="n">
-        <v>11.52484171376371</v>
+        <v>11.52034025834427</v>
       </c>
       <c r="P21" t="n">
-        <v>377.343594077725</v>
+        <v>377.4841152484376</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26450,28 +26630,28 @@
         <v>0.065</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1253414051030868</v>
+        <v>0.1015273444494658</v>
       </c>
       <c r="J22" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K22" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007139758799390661</v>
+        <v>0.00469336570599499</v>
       </c>
       <c r="M22" t="n">
-        <v>8.48093321007519</v>
+        <v>8.536278541667279</v>
       </c>
       <c r="N22" t="n">
-        <v>110.1118498299612</v>
+        <v>111.1880112804836</v>
       </c>
       <c r="O22" t="n">
-        <v>10.49341935833888</v>
+        <v>10.54457259828409</v>
       </c>
       <c r="P22" t="n">
-        <v>383.4815590362349</v>
+        <v>383.7408722345276</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26528,28 +26708,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09440661135347427</v>
+        <v>0.0636356214912881</v>
       </c>
       <c r="J23" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K23" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004622895144480998</v>
+        <v>0.002067826453961086</v>
       </c>
       <c r="M23" t="n">
-        <v>7.979506157866259</v>
+        <v>8.077192548791874</v>
       </c>
       <c r="N23" t="n">
-        <v>96.18008520636586</v>
+        <v>98.84719472560799</v>
       </c>
       <c r="O23" t="n">
-        <v>9.807144600053874</v>
+        <v>9.942192651805133</v>
       </c>
       <c r="P23" t="n">
-        <v>376.6367816886582</v>
+        <v>376.9736066991196</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26606,28 +26786,28 @@
         <v>0.0539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05980175615704801</v>
+        <v>0.03435848113555954</v>
       </c>
       <c r="J24" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K24" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001152854562869954</v>
+        <v>0.0003802578386433719</v>
       </c>
       <c r="M24" t="n">
-        <v>9.868994993117884</v>
+        <v>9.913900542020054</v>
       </c>
       <c r="N24" t="n">
-        <v>153.2255037593217</v>
+        <v>154.8981227708952</v>
       </c>
       <c r="O24" t="n">
-        <v>12.3784289697571</v>
+        <v>12.44580743748252</v>
       </c>
       <c r="P24" t="n">
-        <v>383.7164238525866</v>
+        <v>383.996002401419</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26665,7 +26845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y282"/>
+  <dimension ref="A1:Y284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59475,6 +59655,256 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>-36.26108153047155,175.48995503468876</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>-36.261786726785616,175.49018750771748</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>-36.262443938065424,175.49056799132063</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>-36.263088389879314,175.49101419862407</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>-36.263697299553996,175.49150634313025</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>-36.26430057419137,175.49203514162355</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>-36.26486937829089,175.49259692630733</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>-36.26540954145628,175.49319589376228</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>-36.26555582942543,175.49430625903543</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>-36.26642644567211,175.49449533042167</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>-36.2668474063559,175.4952415982839</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>-36.26727544283842,175.49597712972437</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>-36.26764131331585,175.4967523507927</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>-36.26802347560379,175.49752171231057</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>-36.268258940698324,175.49837554205723</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>-36.268537623848914,175.49921604224537</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>-36.26872673442166,175.5000835000574</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>-36.26887397581394,175.50096328202693</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>-36.26892499533245,175.50186833006012</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>-36.269054152225614,175.50273393314308</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>-36.26914359821205,175.50363720283318</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>-36.26903282921095,175.50452723687877</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>-36.26033121419244,175.48986173191906</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>-36.261078148839026,175.48996546662863</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>-36.26175311118407,175.49029120821027</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>-36.262381672779085,175.49076007261363</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>-36.26302665187858,175.49116838323687</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>-36.26361705149571,175.4916365194218</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>-36.26423423076656,175.49212128192679</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>-36.2648310364854,175.49264670931223</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>-36.265321030562795,175.49331081602702</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>-36.265435928127644,175.49446193580064</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>-36.2664085104784,175.49451522391556</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>-36.26679690297653,175.49528420635912</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>-36.26715568929308,175.4960671155217</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>-36.267581123001726,175.4967975789922</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>-36.267872794594204,175.49762456278714</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>-36.268150606654956,175.4984240552718</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>-36.26836864655016,175.49926578280545</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>-36.26856819910862,175.50013016578492</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>-36.2687117592983,175.50101103015058</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>-36.268787289156045,175.50190139163294</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>-36.26894654557256,175.50273844282984</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>-36.268978996384895,175.50362076794582</t>
+        </is>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>-36.26882914906573,175.50450689871278</t>
+        </is>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0122/nzd0122.xlsx
+++ b/data/nzd0122/nzd0122.xlsx
@@ -25061,13 +25061,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.135</v>
+        <v>0.125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1062</v>
+        <v>0.1031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1875</v>
+        <v>0.1526</v>
       </c>
       <c r="I2" t="n">
         <v>0.2335519210756384</v>
@@ -25139,13 +25139,13 @@
         <v>0.04554790079711156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="G3" t="n">
         <v>0.0951</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1671</v>
+        <v>0.1234</v>
       </c>
       <c r="I3" t="n">
         <v>0.2523961883107207</v>
@@ -25217,13 +25217,13 @@
         <v>0.0910958015936182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.083</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1265</v>
+        <v>0.1286</v>
       </c>
       <c r="I4" t="n">
         <v>0.1965903658113782</v>
@@ -25295,13 +25295,13 @@
         <v>0.1366437023907298</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0766</v>
+        <v>0.0843</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1118</v>
+        <v>0.1132</v>
       </c>
       <c r="I5" t="n">
         <v>0.1410936866404564</v>
@@ -25376,10 +25376,10 @@
         <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0842</v>
+        <v>0.0832</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13</v>
+        <v>0.1246</v>
       </c>
       <c r="I6" t="n">
         <v>0.1795608482952577</v>
@@ -25451,13 +25451,13 @@
         <v>0.2269428310800382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0798</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1152</v>
+        <v>0.1069</v>
       </c>
       <c r="I7" t="n">
         <v>0.1536256662034886</v>
@@ -25529,13 +25529,13 @@
         <v>0.2724907318774659</v>
       </c>
       <c r="F8" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0809</v>
+        <v>0.0774</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1174</v>
+        <v>0.1028</v>
       </c>
       <c r="I8" t="n">
         <v>0.1850472707467583</v>
@@ -25607,13 +25607,13 @@
         <v>0.3180386326748936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0707</v>
+        <v>0.0752</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0988</v>
+        <v>0.103</v>
       </c>
       <c r="I9" t="n">
         <v>0.164088435127428</v>
@@ -25685,13 +25685,13 @@
         <v>0.3635865334723213</v>
       </c>
       <c r="F10" t="n">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0814</v>
+        <v>0.0853</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1124</v>
+        <v>0.1145</v>
       </c>
       <c r="I10" t="n">
         <v>0.07807361487046041</v>
@@ -25766,10 +25766,10 @@
         <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0527</v>
+        <v>0.0486</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.0873</v>
       </c>
       <c r="I11" t="n">
         <v>0.3621749099211689</v>
@@ -25841,13 +25841,13 @@
         <v>0.4546823350669632</v>
       </c>
       <c r="F12" t="n">
-        <v>0.105</v>
+        <v>0.095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0848</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1412</v>
+        <v>0.1136</v>
       </c>
       <c r="I12" t="n">
         <v>0.1000650667957156</v>
@@ -25919,13 +25919,13 @@
         <v>0.4998501380300633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0605</v>
+        <v>0.0646</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>0.0838</v>
       </c>
       <c r="I13" t="n">
         <v>0.1684391069980076</v>
@@ -25997,13 +25997,13 @@
         <v>0.545398038826381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0633</v>
+        <v>0.0679</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0824</v>
+        <v>0.0814</v>
       </c>
       <c r="I14" t="n">
         <v>0.1973429926448442</v>
@@ -26075,13 +26075,13 @@
         <v>0.590945939624134</v>
       </c>
       <c r="F15" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0641</v>
+        <v>0.0693</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0848</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>0.1318282916444942</v>
@@ -26153,13 +26153,13 @@
         <v>0.636493840420678</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0614</v>
+        <v>0.0723</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.0959</v>
       </c>
       <c r="I16" t="n">
         <v>0.2374673092316225</v>
@@ -26231,13 +26231,13 @@
         <v>0.6816058416270161</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0547</v>
+        <v>0.0713</v>
       </c>
       <c r="H17" t="n">
-        <v>0.068</v>
+        <v>0.0883</v>
       </c>
       <c r="I17" t="n">
         <v>0.372178261621954</v>
@@ -26309,13 +26309,13 @@
         <v>0.7271537424237641</v>
       </c>
       <c r="F18" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0682</v>
+        <v>0.0733</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0901</v>
+        <v>0.0919</v>
       </c>
       <c r="I18" t="n">
         <v>0.3332008339608236</v>
@@ -26387,13 +26387,13 @@
         <v>0.772701643220512</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0621</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.1224</v>
       </c>
       <c r="I19" t="n">
         <v>0.3133345639977639</v>
@@ -26465,13 +26465,13 @@
         <v>0.81824954401726</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0612</v>
+        <v>0.0643</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0765</v>
+        <v>0.1034</v>
       </c>
       <c r="I20" t="n">
         <v>0.3126590014303788</v>
@@ -26543,13 +26543,13 @@
         <v>0.8637974448141131</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0452</v>
+        <v>0.0629</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0572</v>
+        <v>0.0847</v>
       </c>
       <c r="I21" t="n">
         <v>0.1985219444871161</v>
@@ -26621,13 +26621,13 @@
         <v>0.9089041984038064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0521</v>
+        <v>0.0542</v>
       </c>
       <c r="H22" t="n">
-        <v>0.065</v>
+        <v>0.0767</v>
       </c>
       <c r="I22" t="n">
         <v>0.1015357335176733</v>
@@ -26699,13 +26699,13 @@
         <v>0.9544520992018898</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0644</v>
+        <v>0.0442</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.0697</v>
       </c>
       <c r="I23" t="n">
         <v>0.06362243477880353</v>
@@ -26780,10 +26780,10 @@
         <v>0.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.044</v>
+        <v>0.0378</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0539</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="I24" t="n">
         <v>0.03435848113555951</v>
